--- a/docs/EAC_to_RiC-O_1.0.2_documentation.xlsx
+++ b/docs/EAC_to_RiC-O_1.0.2_documentation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shared\ArchivesNationalesFr\travail_ric-o_converter_v3\branch_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shared\ArchivesNationalesFr\rico-converter\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D54FF85-AFDB-4ECC-818B-85180B80FC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D91481-A565-4F90-BBA5-C216104E2502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,46 +1423,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">For each p subelement, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>rico:source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(to be changed, see row 13)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> with @rdf:parseType='literal' and a html:p subelement. 
-In addition to this, certain URIs are extracted from the text of the p subelement and a rico:hasSource is generated to store such URIs.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">rico:hasOrHadCorporateBodytype + a rico:CorporateBodyType whose URI is generated from term/@vocabularySource, as long as there is one occurrence only.
 if there is no term/@vocabularySource, outputs nothing and generates a warning.
 When multiple legal statuses (with dates) will be indicated, generates, for each legalStatus, a relation rico:TypeRelation with the properties </t>
@@ -2219,74 +2179,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This is NOT a complete, formal or detailed specification of the mapping between EAC-CPF and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RiC-O 1.0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 
-but rather a simple documentation that should serve as an entry point to the more detailed unit tests that act as formal specifications of how the RiC-O converter behaves.</t>
-    </r>
-  </si>
-  <si>
-    <t>rico:hasSource if the source can be considered a URI.
-rico:source with a literal otherwise. (TODO change this, to rico:recordResourceSourceOfInformation (datatype property) or rico:recordResourceHasSourceOfInformation (object property) as soon as implemented (once added in RiC-O 1.1)</t>
-  </si>
-  <si>
     <t>used to generate the URI of the rico:Place to which the rico:PlaceRelation connects the Agent (unit test 36), or to which a first, intermediate, rico:Place is connected through a rico:hasOrHadLocation (unit tests 35 and 36).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>rico:generalDescription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> on the rico:PlaceRelation between the Agent and the Place</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>rico:generalDescription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> on the rico:PerformanceRelation</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2339,25 +2232,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>rico:generalDescription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> on the relation</t>
-    </r>
-  </si>
-  <si>
     <t>For now, the organic provenance relation is the only resourceRelation case that is handled by RiC-O Converter (as the ANF EAC-CPF files often happen to be wrong when they use other values for @resourceRelationType).
 Handling more, including based on some @xlink:arcrole values, may be a priority for a future version of the software.</t>
   </si>
@@ -2392,6 +2266,116 @@
         <family val="1"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is NOT a complete, formal or detailed specification of the mapping between EAC-CPF and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RiC-O 1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 
+but rather a simple documentation that should serve as an entry point to the more detailed unit tests that act as formal specifications of how the RiC-O converter behaves.
+Text or data (notably names of RiC-O properties in column F) that have changed, or have been added to this documentation since version 2 of RiC-O Converter, are in bold characters.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">rico:recordResourceHasSourceOfInformation if the source can be considered a URI.
+rico:recordResourceSourceOfInformation with a literal otherwise. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For each p subelement, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">rico:recordResourceSourceOfInformation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> with @rdf:parseType='literal' and a html:p subelement. 
+In addition to this, certain URIs are extracted from the text of the p subelement and a rico:hasSource is generated to store such URIs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>rico:note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on the rico:PlaceRelation between the Agent and the Place</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>rico:note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on the rico:PerformanceRelation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>rico:note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on the relation</t>
     </r>
   </si>
 </sst>
@@ -2466,7 +2450,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2481,20 +2465,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2510,7 +2482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2536,9 +2508,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2553,27 +2522,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2807,8 +2773,8 @@
   </sheetPr>
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2825,15 +2791,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="A1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="3"/>
       <c r="I1" s="2"/>
     </row>
@@ -2876,32 +2842,32 @@
       <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2919,30 +2885,30 @@
         <v>15</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -2960,30 +2926,30 @@
         <v>19</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
     </row>
     <row r="6" spans="1:27" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2997,32 +2963,32 @@
       <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:27" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -3036,32 +3002,32 @@
       <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -3078,31 +3044,31 @@
       <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
     </row>
     <row r="9" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -3113,37 +3079,37 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
     </row>
     <row r="10" spans="1:27" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -3161,30 +3127,30 @@
         <v>39</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -3198,30 +3164,30 @@
       <c r="E11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -3235,30 +3201,30 @@
       <c r="E12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
     </row>
     <row r="13" spans="1:27" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -3278,30 +3244,30 @@
         <v>49</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-    </row>
-    <row r="14" spans="1:27" ht="66" x14ac:dyDescent="0.25">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -3317,32 +3283,32 @@
       <c r="E14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>251</v>
+      <c r="F14" s="20" t="s">
+        <v>257</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
     </row>
     <row r="15" spans="1:27" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -3360,36 +3326,36 @@
       <c r="E15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>243</v>
+      <c r="F15" s="19" t="s">
+        <v>258</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-    </row>
-    <row r="16" spans="1:27" ht="250.8" x14ac:dyDescent="0.25">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" ht="299.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
@@ -3406,31 +3372,31 @@
       <c r="F16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
     </row>
     <row r="17" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -3443,35 +3409,35 @@
         <v>67</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
     </row>
     <row r="18" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -3486,35 +3452,35 @@
       <c r="D18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>261</v>
+      <c r="F18" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -3527,32 +3493,32 @@
         <v>75</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
     </row>
     <row r="20" spans="1:27" ht="237.6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -3574,30 +3540,30 @@
         <v>79</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
     </row>
     <row r="21" spans="1:27" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -3619,30 +3585,30 @@
         <v>83</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
     </row>
     <row r="22" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -3663,31 +3629,31 @@
       <c r="F22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -3702,33 +3668,33 @@
       <c r="D23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -3741,33 +3707,33 @@
         <v>91</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
     </row>
     <row r="25" spans="1:27" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -3795,24 +3761,24 @@
       <c r="I25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -3830,34 +3796,34 @@
       <c r="E26" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="19" t="s">
         <v>103</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
     </row>
     <row r="27" spans="1:27" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -3875,34 +3841,34 @@
       <c r="E27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="19" t="s">
         <v>108</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
     </row>
     <row r="28" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -3917,37 +3883,37 @@
       <c r="D28" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>111</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
     </row>
     <row r="29" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -3969,28 +3935,28 @@
         <v>116</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -4005,35 +3971,35 @@
       <c r="D30" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="10" t="s">
+      <c r="G30" s="11"/>
+      <c r="H30" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
     </row>
     <row r="31" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -4048,35 +4014,35 @@
       <c r="D31" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>253</v>
+      <c r="F31" s="19" t="s">
+        <v>259</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -4091,35 +4057,35 @@
       <c r="D32" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
     </row>
     <row r="33" spans="1:27" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -4137,34 +4103,34 @@
       <c r="E33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>244</v>
+      <c r="F33" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
     </row>
     <row r="34" spans="1:27" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -4182,34 +4148,34 @@
       <c r="E34" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10" t="s">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
     </row>
     <row r="35" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
@@ -4227,32 +4193,32 @@
       <c r="E35" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
     </row>
     <row r="36" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -4270,32 +4236,32 @@
       <c r="E36" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10" t="s">
+      <c r="F36" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
     </row>
     <row r="37" spans="1:27" ht="250.8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
@@ -4313,34 +4279,34 @@
       <c r="E37" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="19" t="s">
         <v>145</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
     </row>
     <row r="38" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -4358,32 +4324,32 @@
       <c r="E38" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>139</v>
       </c>
       <c r="G38" s="8"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10" t="s">
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
     </row>
     <row r="39" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -4401,32 +4367,32 @@
       <c r="E39" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>254</v>
+      <c r="F39" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="G39" s="8"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10" t="s">
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
     </row>
     <row r="40" spans="1:27" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
@@ -4445,33 +4411,33 @@
         <v>154</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
     </row>
     <row r="41" spans="1:27" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
@@ -4487,34 +4453,34 @@
       <c r="E41" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="G41" s="10" t="s">
+      <c r="F41" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10" t="s">
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
     </row>
     <row r="42" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -4533,31 +4499,31 @@
       <c r="F42" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10" t="s">
+      <c r="H42" s="9"/>
+      <c r="I42" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
@@ -4576,31 +4542,31 @@
       <c r="F43" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10" t="s">
+      <c r="H43" s="9"/>
+      <c r="I43" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
@@ -4618,34 +4584,34 @@
       <c r="E44" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
@@ -4661,32 +4627,32 @@
       <c r="E45" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="10" t="s">
+      <c r="G45" s="11"/>
+      <c r="H45" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -4704,30 +4670,30 @@
       <c r="E46" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="8"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
     </row>
     <row r="47" spans="1:27" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -4749,30 +4715,30 @@
         <v>184</v>
       </c>
       <c r="G47" s="8"/>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
     </row>
     <row r="48" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -4790,32 +4756,32 @@
       <c r="E48" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="10" t="s">
+      <c r="G48" s="11"/>
+      <c r="H48" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
     </row>
     <row r="49" spans="1:27" ht="198" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
@@ -4833,34 +4799,34 @@
       <c r="E49" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10" t="s">
+      <c r="G49" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
     </row>
     <row r="50" spans="1:27" ht="224.4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -4878,34 +4844,34 @@
       <c r="E50" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10" t="s">
+      <c r="G50" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
     </row>
     <row r="51" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
@@ -4923,32 +4889,32 @@
       <c r="E51" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="10" t="s">
+      <c r="G51" s="11"/>
+      <c r="H51" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
     </row>
     <row r="52" spans="1:27" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
@@ -4966,32 +4932,32 @@
       <c r="E52" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="19" t="s">
         <v>203</v>
       </c>
       <c r="G52" s="8"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
     </row>
     <row r="53" spans="1:27" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
@@ -5009,32 +4975,32 @@
       <c r="E53" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="19" t="s">
         <v>207</v>
       </c>
       <c r="G53" s="8"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
     </row>
     <row r="54" spans="1:27" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -5052,34 +5018,34 @@
       <c r="E54" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>247</v>
+      <c r="F54" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
     </row>
     <row r="55" spans="1:27" ht="356.4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -5097,34 +5063,34 @@
       <c r="E55" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>248</v>
+      <c r="F55" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
     </row>
     <row r="56" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
@@ -5148,26 +5114,26 @@
       <c r="G56" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -5185,30 +5151,30 @@
       <c r="E57" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -5226,32 +5192,32 @@
       <c r="E58" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G58" s="8"/>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I58" s="10"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
     </row>
     <row r="59" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
@@ -5273,26 +5239,26 @@
         <v>226</v>
       </c>
       <c r="G59" s="8"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
@@ -5310,32 +5276,32 @@
       <c r="E60" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="10" t="s">
+      <c r="G60" s="11"/>
+      <c r="H60" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I60" s="10"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
@@ -5353,32 +5319,32 @@
       <c r="E61" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="10" t="s">
+      <c r="G61" s="11"/>
+      <c r="H61" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="11"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
@@ -5396,30 +5362,30 @@
       <c r="E62" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F62" s="20" t="s">
-        <v>257</v>
+      <c r="F62" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="G62" s="8"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
     </row>
     <row r="63" spans="1:27" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
@@ -5437,36 +5403,36 @@
       <c r="E63" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>249</v>
+      <c r="F63" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I63" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I63" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
@@ -5478,36 +5444,36 @@
       <c r="C64" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="10" t="s">
+      <c r="G64" s="11"/>
+      <c r="H64" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="I64" s="10"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="11"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -5521,32 +5487,32 @@
       <c r="E65" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="10" t="s">
+      <c r="G65" s="11"/>
+      <c r="H65" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="11"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -5558,32 +5524,32 @@
       <c r="E66" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="10" t="s">
+      <c r="G66" s="11"/>
+      <c r="H66" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I66" s="10"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-      <c r="AA66" s="11"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E67" s="2"/>
@@ -6786,3642 +6752,3642 @@
       <c r="I266" s="2"/>
     </row>
     <row r="267" spans="5:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G267" s="19"/>
+      <c r="G267" s="17"/>
       <c r="H267" s="3"/>
       <c r="I267" s="2"/>
     </row>
     <row r="268" spans="5:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G268" s="19"/>
+      <c r="G268" s="17"/>
       <c r="H268" s="3"/>
       <c r="I268" s="2"/>
     </row>
     <row r="269" spans="5:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G269" s="19"/>
+      <c r="G269" s="17"/>
       <c r="H269" s="3"/>
       <c r="I269" s="2"/>
     </row>
     <row r="270" spans="5:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G270" s="19"/>
+      <c r="G270" s="17"/>
       <c r="H270" s="3"/>
       <c r="I270" s="2"/>
     </row>
     <row r="271" spans="5:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G271" s="19"/>
+      <c r="G271" s="17"/>
       <c r="H271" s="3"/>
       <c r="I271" s="2"/>
     </row>
     <row r="272" spans="5:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G272" s="19"/>
+      <c r="G272" s="17"/>
       <c r="H272" s="3"/>
       <c r="I272" s="2"/>
     </row>
     <row r="273" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G273" s="19"/>
+      <c r="G273" s="17"/>
       <c r="H273" s="3"/>
       <c r="I273" s="2"/>
     </row>
     <row r="274" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G274" s="19"/>
+      <c r="G274" s="17"/>
       <c r="H274" s="3"/>
       <c r="I274" s="2"/>
     </row>
     <row r="275" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G275" s="19"/>
+      <c r="G275" s="17"/>
       <c r="H275" s="3"/>
       <c r="I275" s="2"/>
     </row>
     <row r="276" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G276" s="19"/>
+      <c r="G276" s="17"/>
       <c r="H276" s="3"/>
       <c r="I276" s="2"/>
     </row>
     <row r="277" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G277" s="19"/>
+      <c r="G277" s="17"/>
       <c r="H277" s="3"/>
       <c r="I277" s="2"/>
     </row>
     <row r="278" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G278" s="19"/>
+      <c r="G278" s="17"/>
       <c r="H278" s="3"/>
       <c r="I278" s="2"/>
     </row>
     <row r="279" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G279" s="19"/>
+      <c r="G279" s="17"/>
       <c r="H279" s="3"/>
       <c r="I279" s="2"/>
     </row>
     <row r="280" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G280" s="19"/>
+      <c r="G280" s="17"/>
       <c r="H280" s="3"/>
       <c r="I280" s="2"/>
     </row>
     <row r="281" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G281" s="19"/>
+      <c r="G281" s="17"/>
       <c r="H281" s="3"/>
       <c r="I281" s="2"/>
     </row>
     <row r="282" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G282" s="19"/>
+      <c r="G282" s="17"/>
       <c r="H282" s="3"/>
       <c r="I282" s="2"/>
     </row>
     <row r="283" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G283" s="19"/>
+      <c r="G283" s="17"/>
       <c r="H283" s="3"/>
       <c r="I283" s="2"/>
     </row>
     <row r="284" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G284" s="19"/>
+      <c r="G284" s="17"/>
       <c r="H284" s="3"/>
       <c r="I284" s="2"/>
     </row>
     <row r="285" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G285" s="19"/>
+      <c r="G285" s="17"/>
       <c r="H285" s="3"/>
       <c r="I285" s="2"/>
     </row>
     <row r="286" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G286" s="19"/>
+      <c r="G286" s="17"/>
       <c r="H286" s="3"/>
       <c r="I286" s="2"/>
     </row>
     <row r="287" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G287" s="19"/>
+      <c r="G287" s="17"/>
       <c r="H287" s="3"/>
       <c r="I287" s="2"/>
     </row>
     <row r="288" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G288" s="19"/>
+      <c r="G288" s="17"/>
       <c r="H288" s="3"/>
       <c r="I288" s="2"/>
     </row>
     <row r="289" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G289" s="19"/>
+      <c r="G289" s="17"/>
       <c r="H289" s="3"/>
       <c r="I289" s="2"/>
     </row>
     <row r="290" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G290" s="19"/>
+      <c r="G290" s="17"/>
       <c r="H290" s="3"/>
       <c r="I290" s="2"/>
     </row>
     <row r="291" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G291" s="19"/>
+      <c r="G291" s="17"/>
       <c r="H291" s="3"/>
       <c r="I291" s="2"/>
     </row>
     <row r="292" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G292" s="19"/>
+      <c r="G292" s="17"/>
       <c r="H292" s="3"/>
       <c r="I292" s="2"/>
     </row>
     <row r="293" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G293" s="19"/>
+      <c r="G293" s="17"/>
       <c r="H293" s="3"/>
       <c r="I293" s="2"/>
     </row>
     <row r="294" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G294" s="19"/>
+      <c r="G294" s="17"/>
       <c r="H294" s="3"/>
       <c r="I294" s="2"/>
     </row>
     <row r="295" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G295" s="19"/>
+      <c r="G295" s="17"/>
       <c r="H295" s="3"/>
       <c r="I295" s="2"/>
     </row>
     <row r="296" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G296" s="19"/>
+      <c r="G296" s="17"/>
       <c r="H296" s="3"/>
       <c r="I296" s="2"/>
     </row>
     <row r="297" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G297" s="19"/>
+      <c r="G297" s="17"/>
       <c r="H297" s="3"/>
       <c r="I297" s="2"/>
     </row>
     <row r="298" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G298" s="19"/>
+      <c r="G298" s="17"/>
       <c r="H298" s="3"/>
       <c r="I298" s="2"/>
     </row>
     <row r="299" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G299" s="19"/>
+      <c r="G299" s="17"/>
       <c r="H299" s="3"/>
       <c r="I299" s="2"/>
     </row>
     <row r="300" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G300" s="19"/>
+      <c r="G300" s="17"/>
       <c r="H300" s="3"/>
       <c r="I300" s="2"/>
     </row>
     <row r="301" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G301" s="19"/>
+      <c r="G301" s="17"/>
       <c r="H301" s="3"/>
       <c r="I301" s="2"/>
     </row>
     <row r="302" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G302" s="19"/>
+      <c r="G302" s="17"/>
       <c r="H302" s="3"/>
       <c r="I302" s="2"/>
     </row>
     <row r="303" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G303" s="19"/>
+      <c r="G303" s="17"/>
       <c r="H303" s="3"/>
       <c r="I303" s="2"/>
     </row>
     <row r="304" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G304" s="19"/>
+      <c r="G304" s="17"/>
       <c r="H304" s="3"/>
       <c r="I304" s="2"/>
     </row>
     <row r="305" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G305" s="19"/>
+      <c r="G305" s="17"/>
       <c r="H305" s="3"/>
       <c r="I305" s="2"/>
     </row>
     <row r="306" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G306" s="19"/>
+      <c r="G306" s="17"/>
       <c r="H306" s="3"/>
       <c r="I306" s="2"/>
     </row>
     <row r="307" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G307" s="19"/>
+      <c r="G307" s="17"/>
       <c r="H307" s="3"/>
       <c r="I307" s="2"/>
     </row>
     <row r="308" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G308" s="19"/>
+      <c r="G308" s="17"/>
       <c r="H308" s="3"/>
       <c r="I308" s="2"/>
     </row>
     <row r="309" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G309" s="19"/>
+      <c r="G309" s="17"/>
       <c r="H309" s="3"/>
       <c r="I309" s="2"/>
     </row>
     <row r="310" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G310" s="19"/>
+      <c r="G310" s="17"/>
       <c r="H310" s="3"/>
       <c r="I310" s="2"/>
     </row>
     <row r="311" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G311" s="19"/>
+      <c r="G311" s="17"/>
       <c r="H311" s="3"/>
       <c r="I311" s="2"/>
     </row>
     <row r="312" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G312" s="19"/>
+      <c r="G312" s="17"/>
       <c r="H312" s="3"/>
       <c r="I312" s="2"/>
     </row>
     <row r="313" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G313" s="19"/>
+      <c r="G313" s="17"/>
       <c r="H313" s="3"/>
       <c r="I313" s="2"/>
     </row>
     <row r="314" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G314" s="19"/>
+      <c r="G314" s="17"/>
       <c r="H314" s="3"/>
       <c r="I314" s="2"/>
     </row>
     <row r="315" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G315" s="19"/>
+      <c r="G315" s="17"/>
       <c r="H315" s="3"/>
       <c r="I315" s="2"/>
     </row>
     <row r="316" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G316" s="19"/>
+      <c r="G316" s="17"/>
       <c r="H316" s="3"/>
       <c r="I316" s="2"/>
     </row>
     <row r="317" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G317" s="19"/>
+      <c r="G317" s="17"/>
       <c r="H317" s="3"/>
       <c r="I317" s="2"/>
     </row>
     <row r="318" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G318" s="19"/>
+      <c r="G318" s="17"/>
       <c r="H318" s="3"/>
       <c r="I318" s="2"/>
     </row>
     <row r="319" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G319" s="19"/>
+      <c r="G319" s="17"/>
       <c r="H319" s="3"/>
       <c r="I319" s="2"/>
     </row>
     <row r="320" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G320" s="19"/>
+      <c r="G320" s="17"/>
       <c r="H320" s="3"/>
       <c r="I320" s="2"/>
     </row>
     <row r="321" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G321" s="19"/>
+      <c r="G321" s="17"/>
       <c r="H321" s="3"/>
       <c r="I321" s="2"/>
     </row>
     <row r="322" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G322" s="19"/>
+      <c r="G322" s="17"/>
       <c r="H322" s="3"/>
       <c r="I322" s="2"/>
     </row>
     <row r="323" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G323" s="19"/>
+      <c r="G323" s="17"/>
       <c r="H323" s="3"/>
       <c r="I323" s="2"/>
     </row>
     <row r="324" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G324" s="19"/>
+      <c r="G324" s="17"/>
       <c r="H324" s="3"/>
       <c r="I324" s="2"/>
     </row>
     <row r="325" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G325" s="19"/>
+      <c r="G325" s="17"/>
       <c r="H325" s="3"/>
       <c r="I325" s="2"/>
     </row>
     <row r="326" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G326" s="19"/>
+      <c r="G326" s="17"/>
       <c r="H326" s="3"/>
       <c r="I326" s="2"/>
     </row>
     <row r="327" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G327" s="19"/>
+      <c r="G327" s="17"/>
       <c r="H327" s="3"/>
       <c r="I327" s="2"/>
     </row>
     <row r="328" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G328" s="19"/>
+      <c r="G328" s="17"/>
       <c r="H328" s="3"/>
       <c r="I328" s="2"/>
     </row>
     <row r="329" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G329" s="19"/>
+      <c r="G329" s="17"/>
       <c r="H329" s="3"/>
       <c r="I329" s="2"/>
     </row>
     <row r="330" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G330" s="19"/>
+      <c r="G330" s="17"/>
       <c r="H330" s="3"/>
       <c r="I330" s="2"/>
     </row>
     <row r="331" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G331" s="19"/>
+      <c r="G331" s="17"/>
       <c r="H331" s="3"/>
       <c r="I331" s="2"/>
     </row>
     <row r="332" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G332" s="19"/>
+      <c r="G332" s="17"/>
       <c r="H332" s="3"/>
       <c r="I332" s="2"/>
     </row>
     <row r="333" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G333" s="19"/>
+      <c r="G333" s="17"/>
       <c r="H333" s="3"/>
       <c r="I333" s="2"/>
     </row>
     <row r="334" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G334" s="19"/>
+      <c r="G334" s="17"/>
       <c r="H334" s="3"/>
       <c r="I334" s="2"/>
     </row>
     <row r="335" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G335" s="19"/>
+      <c r="G335" s="17"/>
       <c r="H335" s="3"/>
       <c r="I335" s="2"/>
     </row>
     <row r="336" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G336" s="19"/>
+      <c r="G336" s="17"/>
       <c r="H336" s="3"/>
       <c r="I336" s="2"/>
     </row>
     <row r="337" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G337" s="19"/>
+      <c r="G337" s="17"/>
       <c r="H337" s="3"/>
       <c r="I337" s="2"/>
     </row>
     <row r="338" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G338" s="19"/>
+      <c r="G338" s="17"/>
       <c r="H338" s="3"/>
       <c r="I338" s="2"/>
     </row>
     <row r="339" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G339" s="19"/>
+      <c r="G339" s="17"/>
       <c r="H339" s="3"/>
       <c r="I339" s="2"/>
     </row>
     <row r="340" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G340" s="19"/>
+      <c r="G340" s="17"/>
       <c r="H340" s="3"/>
       <c r="I340" s="2"/>
     </row>
     <row r="341" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G341" s="19"/>
+      <c r="G341" s="17"/>
       <c r="H341" s="3"/>
       <c r="I341" s="2"/>
     </row>
     <row r="342" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G342" s="19"/>
+      <c r="G342" s="17"/>
       <c r="H342" s="3"/>
       <c r="I342" s="2"/>
     </row>
     <row r="343" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G343" s="19"/>
+      <c r="G343" s="17"/>
       <c r="H343" s="3"/>
       <c r="I343" s="2"/>
     </row>
     <row r="344" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G344" s="19"/>
+      <c r="G344" s="17"/>
       <c r="H344" s="3"/>
       <c r="I344" s="2"/>
     </row>
     <row r="345" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G345" s="19"/>
+      <c r="G345" s="17"/>
       <c r="H345" s="3"/>
       <c r="I345" s="2"/>
     </row>
     <row r="346" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G346" s="19"/>
+      <c r="G346" s="17"/>
       <c r="H346" s="3"/>
       <c r="I346" s="2"/>
     </row>
     <row r="347" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G347" s="19"/>
+      <c r="G347" s="17"/>
       <c r="H347" s="3"/>
       <c r="I347" s="2"/>
     </row>
     <row r="348" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G348" s="19"/>
+      <c r="G348" s="17"/>
       <c r="H348" s="3"/>
       <c r="I348" s="2"/>
     </row>
     <row r="349" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G349" s="19"/>
+      <c r="G349" s="17"/>
       <c r="H349" s="3"/>
       <c r="I349" s="2"/>
     </row>
     <row r="350" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G350" s="19"/>
+      <c r="G350" s="17"/>
       <c r="H350" s="3"/>
       <c r="I350" s="2"/>
     </row>
     <row r="351" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G351" s="19"/>
+      <c r="G351" s="17"/>
       <c r="H351" s="3"/>
       <c r="I351" s="2"/>
     </row>
     <row r="352" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G352" s="19"/>
+      <c r="G352" s="17"/>
       <c r="H352" s="3"/>
       <c r="I352" s="2"/>
     </row>
     <row r="353" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G353" s="19"/>
+      <c r="G353" s="17"/>
       <c r="H353" s="3"/>
       <c r="I353" s="2"/>
     </row>
     <row r="354" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G354" s="19"/>
+      <c r="G354" s="17"/>
       <c r="H354" s="3"/>
       <c r="I354" s="2"/>
     </row>
     <row r="355" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G355" s="19"/>
+      <c r="G355" s="17"/>
       <c r="H355" s="3"/>
       <c r="I355" s="2"/>
     </row>
     <row r="356" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G356" s="19"/>
+      <c r="G356" s="17"/>
       <c r="H356" s="3"/>
       <c r="I356" s="2"/>
     </row>
     <row r="357" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G357" s="19"/>
+      <c r="G357" s="17"/>
       <c r="H357" s="3"/>
       <c r="I357" s="2"/>
     </row>
     <row r="358" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G358" s="19"/>
+      <c r="G358" s="17"/>
       <c r="H358" s="3"/>
       <c r="I358" s="2"/>
     </row>
     <row r="359" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G359" s="19"/>
+      <c r="G359" s="17"/>
       <c r="H359" s="3"/>
       <c r="I359" s="2"/>
     </row>
     <row r="360" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G360" s="19"/>
+      <c r="G360" s="17"/>
       <c r="H360" s="3"/>
       <c r="I360" s="2"/>
     </row>
     <row r="361" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G361" s="19"/>
+      <c r="G361" s="17"/>
       <c r="H361" s="3"/>
       <c r="I361" s="2"/>
     </row>
     <row r="362" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G362" s="19"/>
+      <c r="G362" s="17"/>
       <c r="H362" s="3"/>
       <c r="I362" s="2"/>
     </row>
     <row r="363" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G363" s="19"/>
+      <c r="G363" s="17"/>
       <c r="H363" s="3"/>
       <c r="I363" s="2"/>
     </row>
     <row r="364" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G364" s="19"/>
+      <c r="G364" s="17"/>
       <c r="H364" s="3"/>
       <c r="I364" s="2"/>
     </row>
     <row r="365" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G365" s="19"/>
+      <c r="G365" s="17"/>
       <c r="H365" s="3"/>
       <c r="I365" s="2"/>
     </row>
     <row r="366" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G366" s="19"/>
+      <c r="G366" s="17"/>
       <c r="H366" s="3"/>
       <c r="I366" s="2"/>
     </row>
     <row r="367" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G367" s="19"/>
+      <c r="G367" s="17"/>
       <c r="H367" s="3"/>
       <c r="I367" s="2"/>
     </row>
     <row r="368" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G368" s="19"/>
+      <c r="G368" s="17"/>
       <c r="H368" s="3"/>
       <c r="I368" s="2"/>
     </row>
     <row r="369" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G369" s="19"/>
+      <c r="G369" s="17"/>
       <c r="H369" s="3"/>
       <c r="I369" s="2"/>
     </row>
     <row r="370" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G370" s="19"/>
+      <c r="G370" s="17"/>
       <c r="H370" s="3"/>
       <c r="I370" s="2"/>
     </row>
     <row r="371" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G371" s="19"/>
+      <c r="G371" s="17"/>
       <c r="H371" s="3"/>
       <c r="I371" s="2"/>
     </row>
     <row r="372" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G372" s="19"/>
+      <c r="G372" s="17"/>
       <c r="H372" s="3"/>
       <c r="I372" s="2"/>
     </row>
     <row r="373" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G373" s="19"/>
+      <c r="G373" s="17"/>
       <c r="H373" s="3"/>
       <c r="I373" s="2"/>
     </row>
     <row r="374" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G374" s="19"/>
+      <c r="G374" s="17"/>
       <c r="H374" s="3"/>
       <c r="I374" s="2"/>
     </row>
     <row r="375" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G375" s="19"/>
+      <c r="G375" s="17"/>
       <c r="H375" s="3"/>
       <c r="I375" s="2"/>
     </row>
     <row r="376" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G376" s="19"/>
+      <c r="G376" s="17"/>
       <c r="H376" s="3"/>
       <c r="I376" s="2"/>
     </row>
     <row r="377" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G377" s="19"/>
+      <c r="G377" s="17"/>
       <c r="H377" s="3"/>
       <c r="I377" s="2"/>
     </row>
     <row r="378" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G378" s="19"/>
+      <c r="G378" s="17"/>
       <c r="H378" s="3"/>
       <c r="I378" s="2"/>
     </row>
     <row r="379" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G379" s="19"/>
+      <c r="G379" s="17"/>
       <c r="H379" s="3"/>
       <c r="I379" s="2"/>
     </row>
     <row r="380" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G380" s="19"/>
+      <c r="G380" s="17"/>
       <c r="H380" s="3"/>
       <c r="I380" s="2"/>
     </row>
     <row r="381" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G381" s="19"/>
+      <c r="G381" s="17"/>
       <c r="H381" s="3"/>
       <c r="I381" s="2"/>
     </row>
     <row r="382" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G382" s="19"/>
+      <c r="G382" s="17"/>
       <c r="H382" s="3"/>
       <c r="I382" s="2"/>
     </row>
     <row r="383" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G383" s="19"/>
+      <c r="G383" s="17"/>
       <c r="H383" s="3"/>
       <c r="I383" s="2"/>
     </row>
     <row r="384" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G384" s="19"/>
+      <c r="G384" s="17"/>
       <c r="H384" s="3"/>
       <c r="I384" s="2"/>
     </row>
     <row r="385" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G385" s="19"/>
+      <c r="G385" s="17"/>
       <c r="H385" s="3"/>
       <c r="I385" s="2"/>
     </row>
     <row r="386" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G386" s="19"/>
+      <c r="G386" s="17"/>
       <c r="H386" s="3"/>
       <c r="I386" s="2"/>
     </row>
     <row r="387" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G387" s="19"/>
+      <c r="G387" s="17"/>
       <c r="H387" s="3"/>
       <c r="I387" s="2"/>
     </row>
     <row r="388" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G388" s="19"/>
+      <c r="G388" s="17"/>
       <c r="H388" s="3"/>
       <c r="I388" s="2"/>
     </row>
     <row r="389" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G389" s="19"/>
+      <c r="G389" s="17"/>
       <c r="H389" s="3"/>
       <c r="I389" s="2"/>
     </row>
     <row r="390" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G390" s="19"/>
+      <c r="G390" s="17"/>
       <c r="H390" s="3"/>
       <c r="I390" s="2"/>
     </row>
     <row r="391" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G391" s="19"/>
+      <c r="G391" s="17"/>
       <c r="H391" s="3"/>
       <c r="I391" s="2"/>
     </row>
     <row r="392" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G392" s="19"/>
+      <c r="G392" s="17"/>
       <c r="H392" s="3"/>
       <c r="I392" s="2"/>
     </row>
     <row r="393" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G393" s="19"/>
+      <c r="G393" s="17"/>
       <c r="H393" s="3"/>
       <c r="I393" s="2"/>
     </row>
     <row r="394" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G394" s="19"/>
+      <c r="G394" s="17"/>
       <c r="H394" s="3"/>
       <c r="I394" s="2"/>
     </row>
     <row r="395" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G395" s="19"/>
+      <c r="G395" s="17"/>
       <c r="H395" s="3"/>
       <c r="I395" s="2"/>
     </row>
     <row r="396" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G396" s="19"/>
+      <c r="G396" s="17"/>
       <c r="H396" s="3"/>
       <c r="I396" s="2"/>
     </row>
     <row r="397" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G397" s="19"/>
+      <c r="G397" s="17"/>
       <c r="H397" s="3"/>
       <c r="I397" s="2"/>
     </row>
     <row r="398" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G398" s="19"/>
+      <c r="G398" s="17"/>
       <c r="H398" s="3"/>
       <c r="I398" s="2"/>
     </row>
     <row r="399" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G399" s="19"/>
+      <c r="G399" s="17"/>
       <c r="H399" s="3"/>
       <c r="I399" s="2"/>
     </row>
     <row r="400" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G400" s="19"/>
+      <c r="G400" s="17"/>
       <c r="H400" s="3"/>
       <c r="I400" s="2"/>
     </row>
     <row r="401" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G401" s="19"/>
+      <c r="G401" s="17"/>
       <c r="H401" s="3"/>
       <c r="I401" s="2"/>
     </row>
     <row r="402" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G402" s="19"/>
+      <c r="G402" s="17"/>
       <c r="H402" s="3"/>
       <c r="I402" s="2"/>
     </row>
     <row r="403" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G403" s="19"/>
+      <c r="G403" s="17"/>
       <c r="H403" s="3"/>
       <c r="I403" s="2"/>
     </row>
     <row r="404" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G404" s="19"/>
+      <c r="G404" s="17"/>
       <c r="H404" s="3"/>
       <c r="I404" s="2"/>
     </row>
     <row r="405" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G405" s="19"/>
+      <c r="G405" s="17"/>
       <c r="H405" s="3"/>
       <c r="I405" s="2"/>
     </row>
     <row r="406" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G406" s="19"/>
+      <c r="G406" s="17"/>
       <c r="H406" s="3"/>
       <c r="I406" s="2"/>
     </row>
     <row r="407" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G407" s="19"/>
+      <c r="G407" s="17"/>
       <c r="H407" s="3"/>
       <c r="I407" s="2"/>
     </row>
     <row r="408" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G408" s="19"/>
+      <c r="G408" s="17"/>
       <c r="H408" s="3"/>
       <c r="I408" s="2"/>
     </row>
     <row r="409" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G409" s="19"/>
+      <c r="G409" s="17"/>
       <c r="H409" s="3"/>
       <c r="I409" s="2"/>
     </row>
     <row r="410" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G410" s="19"/>
+      <c r="G410" s="17"/>
       <c r="H410" s="3"/>
       <c r="I410" s="2"/>
     </row>
     <row r="411" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G411" s="19"/>
+      <c r="G411" s="17"/>
       <c r="H411" s="3"/>
       <c r="I411" s="2"/>
     </row>
     <row r="412" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G412" s="19"/>
+      <c r="G412" s="17"/>
       <c r="H412" s="3"/>
       <c r="I412" s="2"/>
     </row>
     <row r="413" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G413" s="19"/>
+      <c r="G413" s="17"/>
       <c r="H413" s="3"/>
       <c r="I413" s="2"/>
     </row>
     <row r="414" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G414" s="19"/>
+      <c r="G414" s="17"/>
       <c r="H414" s="3"/>
       <c r="I414" s="2"/>
     </row>
     <row r="415" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G415" s="19"/>
+      <c r="G415" s="17"/>
       <c r="H415" s="3"/>
       <c r="I415" s="2"/>
     </row>
     <row r="416" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G416" s="19"/>
+      <c r="G416" s="17"/>
       <c r="H416" s="3"/>
       <c r="I416" s="2"/>
     </row>
     <row r="417" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G417" s="19"/>
+      <c r="G417" s="17"/>
       <c r="H417" s="3"/>
       <c r="I417" s="2"/>
     </row>
     <row r="418" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G418" s="19"/>
+      <c r="G418" s="17"/>
       <c r="H418" s="3"/>
       <c r="I418" s="2"/>
     </row>
     <row r="419" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G419" s="19"/>
+      <c r="G419" s="17"/>
       <c r="H419" s="3"/>
       <c r="I419" s="2"/>
     </row>
     <row r="420" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G420" s="19"/>
+      <c r="G420" s="17"/>
       <c r="H420" s="3"/>
       <c r="I420" s="2"/>
     </row>
     <row r="421" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G421" s="19"/>
+      <c r="G421" s="17"/>
       <c r="H421" s="3"/>
       <c r="I421" s="2"/>
     </row>
     <row r="422" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G422" s="19"/>
+      <c r="G422" s="17"/>
       <c r="H422" s="3"/>
       <c r="I422" s="2"/>
     </row>
     <row r="423" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G423" s="19"/>
+      <c r="G423" s="17"/>
       <c r="H423" s="3"/>
       <c r="I423" s="2"/>
     </row>
     <row r="424" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G424" s="19"/>
+      <c r="G424" s="17"/>
       <c r="H424" s="3"/>
       <c r="I424" s="2"/>
     </row>
     <row r="425" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G425" s="19"/>
+      <c r="G425" s="17"/>
       <c r="H425" s="3"/>
       <c r="I425" s="2"/>
     </row>
     <row r="426" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G426" s="19"/>
+      <c r="G426" s="17"/>
       <c r="H426" s="3"/>
       <c r="I426" s="2"/>
     </row>
     <row r="427" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G427" s="19"/>
+      <c r="G427" s="17"/>
       <c r="H427" s="3"/>
       <c r="I427" s="2"/>
     </row>
     <row r="428" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G428" s="19"/>
+      <c r="G428" s="17"/>
       <c r="H428" s="3"/>
       <c r="I428" s="2"/>
     </row>
     <row r="429" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G429" s="19"/>
+      <c r="G429" s="17"/>
       <c r="H429" s="3"/>
       <c r="I429" s="2"/>
     </row>
     <row r="430" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G430" s="19"/>
+      <c r="G430" s="17"/>
       <c r="H430" s="3"/>
       <c r="I430" s="2"/>
     </row>
     <row r="431" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G431" s="19"/>
+      <c r="G431" s="17"/>
       <c r="H431" s="3"/>
       <c r="I431" s="2"/>
     </row>
     <row r="432" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G432" s="19"/>
+      <c r="G432" s="17"/>
       <c r="H432" s="3"/>
       <c r="I432" s="2"/>
     </row>
     <row r="433" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G433" s="19"/>
+      <c r="G433" s="17"/>
       <c r="H433" s="3"/>
       <c r="I433" s="2"/>
     </row>
     <row r="434" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G434" s="19"/>
+      <c r="G434" s="17"/>
       <c r="H434" s="3"/>
       <c r="I434" s="2"/>
     </row>
     <row r="435" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G435" s="19"/>
+      <c r="G435" s="17"/>
       <c r="H435" s="3"/>
       <c r="I435" s="2"/>
     </row>
     <row r="436" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G436" s="19"/>
+      <c r="G436" s="17"/>
       <c r="H436" s="3"/>
       <c r="I436" s="2"/>
     </row>
     <row r="437" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G437" s="19"/>
+      <c r="G437" s="17"/>
       <c r="H437" s="3"/>
       <c r="I437" s="2"/>
     </row>
     <row r="438" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G438" s="19"/>
+      <c r="G438" s="17"/>
       <c r="H438" s="3"/>
       <c r="I438" s="2"/>
     </row>
     <row r="439" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G439" s="19"/>
+      <c r="G439" s="17"/>
       <c r="H439" s="3"/>
       <c r="I439" s="2"/>
     </row>
     <row r="440" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G440" s="19"/>
+      <c r="G440" s="17"/>
       <c r="H440" s="3"/>
       <c r="I440" s="2"/>
     </row>
     <row r="441" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G441" s="19"/>
+      <c r="G441" s="17"/>
       <c r="H441" s="3"/>
       <c r="I441" s="2"/>
     </row>
     <row r="442" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G442" s="19"/>
+      <c r="G442" s="17"/>
       <c r="H442" s="3"/>
       <c r="I442" s="2"/>
     </row>
     <row r="443" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G443" s="19"/>
+      <c r="G443" s="17"/>
       <c r="H443" s="3"/>
       <c r="I443" s="2"/>
     </row>
     <row r="444" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G444" s="19"/>
+      <c r="G444" s="17"/>
       <c r="H444" s="3"/>
       <c r="I444" s="2"/>
     </row>
     <row r="445" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G445" s="19"/>
+      <c r="G445" s="17"/>
       <c r="H445" s="3"/>
       <c r="I445" s="2"/>
     </row>
     <row r="446" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G446" s="19"/>
+      <c r="G446" s="17"/>
       <c r="H446" s="3"/>
       <c r="I446" s="2"/>
     </row>
     <row r="447" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G447" s="19"/>
+      <c r="G447" s="17"/>
       <c r="H447" s="3"/>
       <c r="I447" s="2"/>
     </row>
     <row r="448" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G448" s="19"/>
+      <c r="G448" s="17"/>
       <c r="H448" s="3"/>
       <c r="I448" s="2"/>
     </row>
     <row r="449" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G449" s="19"/>
+      <c r="G449" s="17"/>
       <c r="H449" s="3"/>
       <c r="I449" s="2"/>
     </row>
     <row r="450" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G450" s="19"/>
+      <c r="G450" s="17"/>
       <c r="H450" s="3"/>
       <c r="I450" s="2"/>
     </row>
     <row r="451" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G451" s="19"/>
+      <c r="G451" s="17"/>
       <c r="H451" s="3"/>
       <c r="I451" s="2"/>
     </row>
     <row r="452" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G452" s="19"/>
+      <c r="G452" s="17"/>
       <c r="H452" s="3"/>
       <c r="I452" s="2"/>
     </row>
     <row r="453" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G453" s="19"/>
+      <c r="G453" s="17"/>
       <c r="H453" s="3"/>
       <c r="I453" s="2"/>
     </row>
     <row r="454" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G454" s="19"/>
+      <c r="G454" s="17"/>
       <c r="H454" s="3"/>
       <c r="I454" s="2"/>
     </row>
     <row r="455" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G455" s="19"/>
+      <c r="G455" s="17"/>
       <c r="H455" s="3"/>
       <c r="I455" s="2"/>
     </row>
     <row r="456" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G456" s="19"/>
+      <c r="G456" s="17"/>
       <c r="H456" s="3"/>
       <c r="I456" s="2"/>
     </row>
     <row r="457" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G457" s="19"/>
+      <c r="G457" s="17"/>
       <c r="H457" s="3"/>
       <c r="I457" s="2"/>
     </row>
     <row r="458" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G458" s="19"/>
+      <c r="G458" s="17"/>
       <c r="H458" s="3"/>
       <c r="I458" s="2"/>
     </row>
     <row r="459" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G459" s="19"/>
+      <c r="G459" s="17"/>
       <c r="H459" s="3"/>
       <c r="I459" s="2"/>
     </row>
     <row r="460" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G460" s="19"/>
+      <c r="G460" s="17"/>
       <c r="H460" s="3"/>
       <c r="I460" s="2"/>
     </row>
     <row r="461" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G461" s="19"/>
+      <c r="G461" s="17"/>
       <c r="H461" s="3"/>
       <c r="I461" s="2"/>
     </row>
     <row r="462" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G462" s="19"/>
+      <c r="G462" s="17"/>
       <c r="H462" s="3"/>
       <c r="I462" s="2"/>
     </row>
     <row r="463" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G463" s="19"/>
+      <c r="G463" s="17"/>
       <c r="H463" s="3"/>
       <c r="I463" s="2"/>
     </row>
     <row r="464" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G464" s="19"/>
+      <c r="G464" s="17"/>
       <c r="H464" s="3"/>
       <c r="I464" s="2"/>
     </row>
     <row r="465" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G465" s="19"/>
+      <c r="G465" s="17"/>
       <c r="H465" s="3"/>
       <c r="I465" s="2"/>
     </row>
     <row r="466" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G466" s="19"/>
+      <c r="G466" s="17"/>
       <c r="H466" s="3"/>
       <c r="I466" s="2"/>
     </row>
     <row r="467" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G467" s="19"/>
+      <c r="G467" s="17"/>
       <c r="H467" s="3"/>
       <c r="I467" s="2"/>
     </row>
     <row r="468" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G468" s="19"/>
+      <c r="G468" s="17"/>
       <c r="H468" s="3"/>
       <c r="I468" s="2"/>
     </row>
     <row r="469" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G469" s="19"/>
+      <c r="G469" s="17"/>
       <c r="H469" s="3"/>
       <c r="I469" s="2"/>
     </row>
     <row r="470" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G470" s="19"/>
+      <c r="G470" s="17"/>
       <c r="H470" s="3"/>
       <c r="I470" s="2"/>
     </row>
     <row r="471" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G471" s="19"/>
+      <c r="G471" s="17"/>
       <c r="H471" s="3"/>
       <c r="I471" s="2"/>
     </row>
     <row r="472" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G472" s="19"/>
+      <c r="G472" s="17"/>
       <c r="H472" s="3"/>
       <c r="I472" s="2"/>
     </row>
     <row r="473" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G473" s="19"/>
+      <c r="G473" s="17"/>
       <c r="H473" s="3"/>
       <c r="I473" s="2"/>
     </row>
     <row r="474" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G474" s="19"/>
+      <c r="G474" s="17"/>
       <c r="H474" s="3"/>
       <c r="I474" s="2"/>
     </row>
     <row r="475" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G475" s="19"/>
+      <c r="G475" s="17"/>
       <c r="H475" s="3"/>
       <c r="I475" s="2"/>
     </row>
     <row r="476" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G476" s="19"/>
+      <c r="G476" s="17"/>
       <c r="H476" s="3"/>
       <c r="I476" s="2"/>
     </row>
     <row r="477" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G477" s="19"/>
+      <c r="G477" s="17"/>
       <c r="H477" s="3"/>
       <c r="I477" s="2"/>
     </row>
     <row r="478" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G478" s="19"/>
+      <c r="G478" s="17"/>
       <c r="H478" s="3"/>
       <c r="I478" s="2"/>
     </row>
     <row r="479" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G479" s="19"/>
+      <c r="G479" s="17"/>
       <c r="H479" s="3"/>
       <c r="I479" s="2"/>
     </row>
     <row r="480" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G480" s="19"/>
+      <c r="G480" s="17"/>
       <c r="H480" s="3"/>
       <c r="I480" s="2"/>
     </row>
     <row r="481" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G481" s="19"/>
+      <c r="G481" s="17"/>
       <c r="H481" s="3"/>
       <c r="I481" s="2"/>
     </row>
     <row r="482" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G482" s="19"/>
+      <c r="G482" s="17"/>
       <c r="H482" s="3"/>
       <c r="I482" s="2"/>
     </row>
     <row r="483" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G483" s="19"/>
+      <c r="G483" s="17"/>
       <c r="H483" s="3"/>
       <c r="I483" s="2"/>
     </row>
     <row r="484" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G484" s="19"/>
+      <c r="G484" s="17"/>
       <c r="H484" s="3"/>
       <c r="I484" s="2"/>
     </row>
     <row r="485" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G485" s="19"/>
+      <c r="G485" s="17"/>
       <c r="H485" s="3"/>
       <c r="I485" s="2"/>
     </row>
     <row r="486" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G486" s="19"/>
+      <c r="G486" s="17"/>
       <c r="H486" s="3"/>
       <c r="I486" s="2"/>
     </row>
     <row r="487" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G487" s="19"/>
+      <c r="G487" s="17"/>
       <c r="H487" s="3"/>
       <c r="I487" s="2"/>
     </row>
     <row r="488" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G488" s="19"/>
+      <c r="G488" s="17"/>
       <c r="H488" s="3"/>
       <c r="I488" s="2"/>
     </row>
     <row r="489" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G489" s="19"/>
+      <c r="G489" s="17"/>
       <c r="H489" s="3"/>
       <c r="I489" s="2"/>
     </row>
     <row r="490" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G490" s="19"/>
+      <c r="G490" s="17"/>
       <c r="H490" s="3"/>
       <c r="I490" s="2"/>
     </row>
     <row r="491" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G491" s="19"/>
+      <c r="G491" s="17"/>
       <c r="H491" s="3"/>
       <c r="I491" s="2"/>
     </row>
     <row r="492" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G492" s="19"/>
+      <c r="G492" s="17"/>
       <c r="H492" s="3"/>
       <c r="I492" s="2"/>
     </row>
     <row r="493" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G493" s="19"/>
+      <c r="G493" s="17"/>
       <c r="H493" s="3"/>
       <c r="I493" s="2"/>
     </row>
     <row r="494" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G494" s="19"/>
+      <c r="G494" s="17"/>
       <c r="H494" s="3"/>
       <c r="I494" s="2"/>
     </row>
     <row r="495" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G495" s="19"/>
+      <c r="G495" s="17"/>
       <c r="H495" s="3"/>
       <c r="I495" s="2"/>
     </row>
     <row r="496" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G496" s="19"/>
+      <c r="G496" s="17"/>
       <c r="H496" s="3"/>
       <c r="I496" s="2"/>
     </row>
     <row r="497" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G497" s="19"/>
+      <c r="G497" s="17"/>
       <c r="H497" s="3"/>
       <c r="I497" s="2"/>
     </row>
     <row r="498" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G498" s="19"/>
+      <c r="G498" s="17"/>
       <c r="H498" s="3"/>
       <c r="I498" s="2"/>
     </row>
     <row r="499" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G499" s="19"/>
+      <c r="G499" s="17"/>
       <c r="H499" s="3"/>
       <c r="I499" s="2"/>
     </row>
     <row r="500" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G500" s="19"/>
+      <c r="G500" s="17"/>
       <c r="H500" s="3"/>
       <c r="I500" s="2"/>
     </row>
     <row r="501" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G501" s="19"/>
+      <c r="G501" s="17"/>
       <c r="H501" s="3"/>
       <c r="I501" s="2"/>
     </row>
     <row r="502" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G502" s="19"/>
+      <c r="G502" s="17"/>
       <c r="H502" s="3"/>
       <c r="I502" s="2"/>
     </row>
     <row r="503" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G503" s="19"/>
+      <c r="G503" s="17"/>
       <c r="H503" s="3"/>
       <c r="I503" s="2"/>
     </row>
     <row r="504" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G504" s="19"/>
+      <c r="G504" s="17"/>
       <c r="H504" s="3"/>
       <c r="I504" s="2"/>
     </row>
     <row r="505" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G505" s="19"/>
+      <c r="G505" s="17"/>
       <c r="H505" s="3"/>
       <c r="I505" s="2"/>
     </row>
     <row r="506" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G506" s="19"/>
+      <c r="G506" s="17"/>
       <c r="H506" s="3"/>
       <c r="I506" s="2"/>
     </row>
     <row r="507" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G507" s="19"/>
+      <c r="G507" s="17"/>
       <c r="H507" s="3"/>
       <c r="I507" s="2"/>
     </row>
     <row r="508" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G508" s="19"/>
+      <c r="G508" s="17"/>
       <c r="H508" s="3"/>
       <c r="I508" s="2"/>
     </row>
     <row r="509" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G509" s="19"/>
+      <c r="G509" s="17"/>
       <c r="H509" s="3"/>
       <c r="I509" s="2"/>
     </row>
     <row r="510" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G510" s="19"/>
+      <c r="G510" s="17"/>
       <c r="H510" s="3"/>
       <c r="I510" s="2"/>
     </row>
     <row r="511" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G511" s="19"/>
+      <c r="G511" s="17"/>
       <c r="H511" s="3"/>
       <c r="I511" s="2"/>
     </row>
     <row r="512" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G512" s="19"/>
+      <c r="G512" s="17"/>
       <c r="H512" s="3"/>
       <c r="I512" s="2"/>
     </row>
     <row r="513" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G513" s="19"/>
+      <c r="G513" s="17"/>
       <c r="H513" s="3"/>
       <c r="I513" s="2"/>
     </row>
     <row r="514" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G514" s="19"/>
+      <c r="G514" s="17"/>
       <c r="H514" s="3"/>
       <c r="I514" s="2"/>
     </row>
     <row r="515" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G515" s="19"/>
+      <c r="G515" s="17"/>
       <c r="H515" s="3"/>
       <c r="I515" s="2"/>
     </row>
     <row r="516" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G516" s="19"/>
+      <c r="G516" s="17"/>
       <c r="H516" s="3"/>
       <c r="I516" s="2"/>
     </row>
     <row r="517" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G517" s="19"/>
+      <c r="G517" s="17"/>
       <c r="H517" s="3"/>
       <c r="I517" s="2"/>
     </row>
     <row r="518" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G518" s="19"/>
+      <c r="G518" s="17"/>
       <c r="H518" s="3"/>
       <c r="I518" s="2"/>
     </row>
     <row r="519" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G519" s="19"/>
+      <c r="G519" s="17"/>
       <c r="H519" s="3"/>
       <c r="I519" s="2"/>
     </row>
     <row r="520" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G520" s="19"/>
+      <c r="G520" s="17"/>
       <c r="H520" s="3"/>
       <c r="I520" s="2"/>
     </row>
     <row r="521" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G521" s="19"/>
+      <c r="G521" s="17"/>
       <c r="H521" s="3"/>
       <c r="I521" s="2"/>
     </row>
     <row r="522" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G522" s="19"/>
+      <c r="G522" s="17"/>
       <c r="H522" s="3"/>
       <c r="I522" s="2"/>
     </row>
     <row r="523" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G523" s="19"/>
+      <c r="G523" s="17"/>
       <c r="H523" s="3"/>
       <c r="I523" s="2"/>
     </row>
     <row r="524" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G524" s="19"/>
+      <c r="G524" s="17"/>
       <c r="H524" s="3"/>
       <c r="I524" s="2"/>
     </row>
     <row r="525" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G525" s="19"/>
+      <c r="G525" s="17"/>
       <c r="H525" s="3"/>
       <c r="I525" s="2"/>
     </row>
     <row r="526" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G526" s="19"/>
+      <c r="G526" s="17"/>
       <c r="H526" s="3"/>
       <c r="I526" s="2"/>
     </row>
     <row r="527" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G527" s="19"/>
+      <c r="G527" s="17"/>
       <c r="H527" s="3"/>
       <c r="I527" s="2"/>
     </row>
     <row r="528" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G528" s="19"/>
+      <c r="G528" s="17"/>
       <c r="H528" s="3"/>
       <c r="I528" s="2"/>
     </row>
     <row r="529" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G529" s="19"/>
+      <c r="G529" s="17"/>
       <c r="H529" s="3"/>
       <c r="I529" s="2"/>
     </row>
     <row r="530" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G530" s="19"/>
+      <c r="G530" s="17"/>
       <c r="H530" s="3"/>
       <c r="I530" s="2"/>
     </row>
     <row r="531" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G531" s="19"/>
+      <c r="G531" s="17"/>
       <c r="H531" s="3"/>
       <c r="I531" s="2"/>
     </row>
     <row r="532" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G532" s="19"/>
+      <c r="G532" s="17"/>
       <c r="H532" s="3"/>
       <c r="I532" s="2"/>
     </row>
     <row r="533" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G533" s="19"/>
+      <c r="G533" s="17"/>
       <c r="H533" s="3"/>
       <c r="I533" s="2"/>
     </row>
     <row r="534" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G534" s="19"/>
+      <c r="G534" s="17"/>
       <c r="H534" s="3"/>
       <c r="I534" s="2"/>
     </row>
     <row r="535" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G535" s="19"/>
+      <c r="G535" s="17"/>
       <c r="H535" s="3"/>
       <c r="I535" s="2"/>
     </row>
     <row r="536" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G536" s="19"/>
+      <c r="G536" s="17"/>
       <c r="H536" s="3"/>
       <c r="I536" s="2"/>
     </row>
     <row r="537" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G537" s="19"/>
+      <c r="G537" s="17"/>
       <c r="H537" s="3"/>
       <c r="I537" s="2"/>
     </row>
     <row r="538" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G538" s="19"/>
+      <c r="G538" s="17"/>
       <c r="H538" s="3"/>
       <c r="I538" s="2"/>
     </row>
     <row r="539" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G539" s="19"/>
+      <c r="G539" s="17"/>
       <c r="H539" s="3"/>
       <c r="I539" s="2"/>
     </row>
     <row r="540" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G540" s="19"/>
+      <c r="G540" s="17"/>
       <c r="H540" s="3"/>
       <c r="I540" s="2"/>
     </row>
     <row r="541" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G541" s="19"/>
+      <c r="G541" s="17"/>
       <c r="H541" s="3"/>
       <c r="I541" s="2"/>
     </row>
     <row r="542" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G542" s="19"/>
+      <c r="G542" s="17"/>
       <c r="H542" s="3"/>
       <c r="I542" s="2"/>
     </row>
     <row r="543" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G543" s="19"/>
+      <c r="G543" s="17"/>
       <c r="H543" s="3"/>
       <c r="I543" s="2"/>
     </row>
     <row r="544" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G544" s="19"/>
+      <c r="G544" s="17"/>
       <c r="H544" s="3"/>
       <c r="I544" s="2"/>
     </row>
     <row r="545" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G545" s="19"/>
+      <c r="G545" s="17"/>
       <c r="H545" s="3"/>
       <c r="I545" s="2"/>
     </row>
     <row r="546" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G546" s="19"/>
+      <c r="G546" s="17"/>
       <c r="H546" s="3"/>
       <c r="I546" s="2"/>
     </row>
     <row r="547" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G547" s="19"/>
+      <c r="G547" s="17"/>
       <c r="H547" s="3"/>
       <c r="I547" s="2"/>
     </row>
     <row r="548" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G548" s="19"/>
+      <c r="G548" s="17"/>
       <c r="H548" s="3"/>
       <c r="I548" s="2"/>
     </row>
     <row r="549" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G549" s="19"/>
+      <c r="G549" s="17"/>
       <c r="H549" s="3"/>
       <c r="I549" s="2"/>
     </row>
     <row r="550" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G550" s="19"/>
+      <c r="G550" s="17"/>
       <c r="H550" s="3"/>
       <c r="I550" s="2"/>
     </row>
     <row r="551" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G551" s="19"/>
+      <c r="G551" s="17"/>
       <c r="H551" s="3"/>
       <c r="I551" s="2"/>
     </row>
     <row r="552" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G552" s="19"/>
+      <c r="G552" s="17"/>
       <c r="H552" s="3"/>
       <c r="I552" s="2"/>
     </row>
     <row r="553" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G553" s="19"/>
+      <c r="G553" s="17"/>
       <c r="H553" s="3"/>
       <c r="I553" s="2"/>
     </row>
     <row r="554" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G554" s="19"/>
+      <c r="G554" s="17"/>
       <c r="H554" s="3"/>
       <c r="I554" s="2"/>
     </row>
     <row r="555" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G555" s="19"/>
+      <c r="G555" s="17"/>
       <c r="H555" s="3"/>
       <c r="I555" s="2"/>
     </row>
     <row r="556" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G556" s="19"/>
+      <c r="G556" s="17"/>
       <c r="H556" s="3"/>
       <c r="I556" s="2"/>
     </row>
     <row r="557" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G557" s="19"/>
+      <c r="G557" s="17"/>
       <c r="H557" s="3"/>
       <c r="I557" s="2"/>
     </row>
     <row r="558" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G558" s="19"/>
+      <c r="G558" s="17"/>
       <c r="H558" s="3"/>
       <c r="I558" s="2"/>
     </row>
     <row r="559" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G559" s="19"/>
+      <c r="G559" s="17"/>
       <c r="H559" s="3"/>
       <c r="I559" s="2"/>
     </row>
     <row r="560" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G560" s="19"/>
+      <c r="G560" s="17"/>
       <c r="H560" s="3"/>
       <c r="I560" s="2"/>
     </row>
     <row r="561" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G561" s="19"/>
+      <c r="G561" s="17"/>
       <c r="H561" s="3"/>
       <c r="I561" s="2"/>
     </row>
     <row r="562" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G562" s="19"/>
+      <c r="G562" s="17"/>
       <c r="H562" s="3"/>
       <c r="I562" s="2"/>
     </row>
     <row r="563" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G563" s="19"/>
+      <c r="G563" s="17"/>
       <c r="H563" s="3"/>
       <c r="I563" s="2"/>
     </row>
     <row r="564" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G564" s="19"/>
+      <c r="G564" s="17"/>
       <c r="H564" s="3"/>
       <c r="I564" s="2"/>
     </row>
     <row r="565" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G565" s="19"/>
+      <c r="G565" s="17"/>
       <c r="H565" s="3"/>
       <c r="I565" s="2"/>
     </row>
     <row r="566" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G566" s="19"/>
+      <c r="G566" s="17"/>
       <c r="H566" s="3"/>
       <c r="I566" s="2"/>
     </row>
     <row r="567" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G567" s="19"/>
+      <c r="G567" s="17"/>
       <c r="H567" s="3"/>
       <c r="I567" s="2"/>
     </row>
     <row r="568" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G568" s="19"/>
+      <c r="G568" s="17"/>
       <c r="H568" s="3"/>
       <c r="I568" s="2"/>
     </row>
     <row r="569" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G569" s="19"/>
+      <c r="G569" s="17"/>
       <c r="H569" s="3"/>
       <c r="I569" s="2"/>
     </row>
     <row r="570" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G570" s="19"/>
+      <c r="G570" s="17"/>
       <c r="H570" s="3"/>
       <c r="I570" s="2"/>
     </row>
     <row r="571" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G571" s="19"/>
+      <c r="G571" s="17"/>
       <c r="H571" s="3"/>
       <c r="I571" s="2"/>
     </row>
     <row r="572" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G572" s="19"/>
+      <c r="G572" s="17"/>
       <c r="H572" s="3"/>
       <c r="I572" s="2"/>
     </row>
     <row r="573" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G573" s="19"/>
+      <c r="G573" s="17"/>
       <c r="H573" s="3"/>
       <c r="I573" s="2"/>
     </row>
     <row r="574" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G574" s="19"/>
+      <c r="G574" s="17"/>
       <c r="H574" s="3"/>
       <c r="I574" s="2"/>
     </row>
     <row r="575" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G575" s="19"/>
+      <c r="G575" s="17"/>
       <c r="H575" s="3"/>
       <c r="I575" s="2"/>
     </row>
     <row r="576" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G576" s="19"/>
+      <c r="G576" s="17"/>
       <c r="H576" s="3"/>
       <c r="I576" s="2"/>
     </row>
     <row r="577" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G577" s="19"/>
+      <c r="G577" s="17"/>
       <c r="H577" s="3"/>
       <c r="I577" s="2"/>
     </row>
     <row r="578" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G578" s="19"/>
+      <c r="G578" s="17"/>
       <c r="H578" s="3"/>
       <c r="I578" s="2"/>
     </row>
     <row r="579" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G579" s="19"/>
+      <c r="G579" s="17"/>
       <c r="H579" s="3"/>
       <c r="I579" s="2"/>
     </row>
     <row r="580" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G580" s="19"/>
+      <c r="G580" s="17"/>
       <c r="H580" s="3"/>
       <c r="I580" s="2"/>
     </row>
     <row r="581" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G581" s="19"/>
+      <c r="G581" s="17"/>
       <c r="H581" s="3"/>
       <c r="I581" s="2"/>
     </row>
     <row r="582" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G582" s="19"/>
+      <c r="G582" s="17"/>
       <c r="H582" s="3"/>
       <c r="I582" s="2"/>
     </row>
     <row r="583" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G583" s="19"/>
+      <c r="G583" s="17"/>
       <c r="H583" s="3"/>
       <c r="I583" s="2"/>
     </row>
     <row r="584" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G584" s="19"/>
+      <c r="G584" s="17"/>
       <c r="H584" s="3"/>
       <c r="I584" s="2"/>
     </row>
     <row r="585" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G585" s="19"/>
+      <c r="G585" s="17"/>
       <c r="H585" s="3"/>
       <c r="I585" s="2"/>
     </row>
     <row r="586" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G586" s="19"/>
+      <c r="G586" s="17"/>
       <c r="H586" s="3"/>
       <c r="I586" s="2"/>
     </row>
     <row r="587" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G587" s="19"/>
+      <c r="G587" s="17"/>
       <c r="H587" s="3"/>
       <c r="I587" s="2"/>
     </row>
     <row r="588" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G588" s="19"/>
+      <c r="G588" s="17"/>
       <c r="H588" s="3"/>
       <c r="I588" s="2"/>
     </row>
     <row r="589" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G589" s="19"/>
+      <c r="G589" s="17"/>
       <c r="H589" s="3"/>
       <c r="I589" s="2"/>
     </row>
     <row r="590" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G590" s="19"/>
+      <c r="G590" s="17"/>
       <c r="H590" s="3"/>
       <c r="I590" s="2"/>
     </row>
     <row r="591" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G591" s="19"/>
+      <c r="G591" s="17"/>
       <c r="H591" s="3"/>
       <c r="I591" s="2"/>
     </row>
     <row r="592" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G592" s="19"/>
+      <c r="G592" s="17"/>
       <c r="H592" s="3"/>
       <c r="I592" s="2"/>
     </row>
     <row r="593" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G593" s="19"/>
+      <c r="G593" s="17"/>
       <c r="H593" s="3"/>
       <c r="I593" s="2"/>
     </row>
     <row r="594" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G594" s="19"/>
+      <c r="G594" s="17"/>
       <c r="H594" s="3"/>
       <c r="I594" s="2"/>
     </row>
     <row r="595" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G595" s="19"/>
+      <c r="G595" s="17"/>
       <c r="H595" s="3"/>
       <c r="I595" s="2"/>
     </row>
     <row r="596" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G596" s="19"/>
+      <c r="G596" s="17"/>
       <c r="H596" s="3"/>
       <c r="I596" s="2"/>
     </row>
     <row r="597" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G597" s="19"/>
+      <c r="G597" s="17"/>
       <c r="H597" s="3"/>
       <c r="I597" s="2"/>
     </row>
     <row r="598" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G598" s="19"/>
+      <c r="G598" s="17"/>
       <c r="H598" s="3"/>
       <c r="I598" s="2"/>
     </row>
     <row r="599" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G599" s="19"/>
+      <c r="G599" s="17"/>
       <c r="H599" s="3"/>
       <c r="I599" s="2"/>
     </row>
     <row r="600" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G600" s="19"/>
+      <c r="G600" s="17"/>
       <c r="H600" s="3"/>
       <c r="I600" s="2"/>
     </row>
     <row r="601" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G601" s="19"/>
+      <c r="G601" s="17"/>
       <c r="H601" s="3"/>
       <c r="I601" s="2"/>
     </row>
     <row r="602" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G602" s="19"/>
+      <c r="G602" s="17"/>
       <c r="H602" s="3"/>
       <c r="I602" s="2"/>
     </row>
     <row r="603" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G603" s="19"/>
+      <c r="G603" s="17"/>
       <c r="H603" s="3"/>
       <c r="I603" s="2"/>
     </row>
     <row r="604" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G604" s="19"/>
+      <c r="G604" s="17"/>
       <c r="H604" s="3"/>
       <c r="I604" s="2"/>
     </row>
     <row r="605" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G605" s="19"/>
+      <c r="G605" s="17"/>
       <c r="H605" s="3"/>
       <c r="I605" s="2"/>
     </row>
     <row r="606" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G606" s="19"/>
+      <c r="G606" s="17"/>
       <c r="H606" s="3"/>
       <c r="I606" s="2"/>
     </row>
     <row r="607" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G607" s="19"/>
+      <c r="G607" s="17"/>
       <c r="H607" s="3"/>
       <c r="I607" s="2"/>
     </row>
     <row r="608" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G608" s="19"/>
+      <c r="G608" s="17"/>
       <c r="H608" s="3"/>
       <c r="I608" s="2"/>
     </row>
     <row r="609" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G609" s="19"/>
+      <c r="G609" s="17"/>
       <c r="H609" s="3"/>
       <c r="I609" s="2"/>
     </row>
     <row r="610" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G610" s="19"/>
+      <c r="G610" s="17"/>
       <c r="H610" s="3"/>
       <c r="I610" s="2"/>
     </row>
     <row r="611" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G611" s="19"/>
+      <c r="G611" s="17"/>
       <c r="H611" s="3"/>
       <c r="I611" s="2"/>
     </row>
     <row r="612" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G612" s="19"/>
+      <c r="G612" s="17"/>
       <c r="H612" s="3"/>
       <c r="I612" s="2"/>
     </row>
     <row r="613" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G613" s="19"/>
+      <c r="G613" s="17"/>
       <c r="H613" s="3"/>
       <c r="I613" s="2"/>
     </row>
     <row r="614" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G614" s="19"/>
+      <c r="G614" s="17"/>
       <c r="H614" s="3"/>
       <c r="I614" s="2"/>
     </row>
     <row r="615" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G615" s="19"/>
+      <c r="G615" s="17"/>
       <c r="H615" s="3"/>
       <c r="I615" s="2"/>
     </row>
     <row r="616" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G616" s="19"/>
+      <c r="G616" s="17"/>
       <c r="H616" s="3"/>
       <c r="I616" s="2"/>
     </row>
     <row r="617" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G617" s="19"/>
+      <c r="G617" s="17"/>
       <c r="H617" s="3"/>
       <c r="I617" s="2"/>
     </row>
     <row r="618" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G618" s="19"/>
+      <c r="G618" s="17"/>
       <c r="H618" s="3"/>
       <c r="I618" s="2"/>
     </row>
     <row r="619" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G619" s="19"/>
+      <c r="G619" s="17"/>
       <c r="H619" s="3"/>
       <c r="I619" s="2"/>
     </row>
     <row r="620" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G620" s="19"/>
+      <c r="G620" s="17"/>
       <c r="H620" s="3"/>
       <c r="I620" s="2"/>
     </row>
     <row r="621" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G621" s="19"/>
+      <c r="G621" s="17"/>
       <c r="H621" s="3"/>
       <c r="I621" s="2"/>
     </row>
     <row r="622" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G622" s="19"/>
+      <c r="G622" s="17"/>
       <c r="H622" s="3"/>
       <c r="I622" s="2"/>
     </row>
     <row r="623" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G623" s="19"/>
+      <c r="G623" s="17"/>
       <c r="H623" s="3"/>
       <c r="I623" s="2"/>
     </row>
     <row r="624" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G624" s="19"/>
+      <c r="G624" s="17"/>
       <c r="H624" s="3"/>
       <c r="I624" s="2"/>
     </row>
     <row r="625" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G625" s="19"/>
+      <c r="G625" s="17"/>
       <c r="H625" s="3"/>
       <c r="I625" s="2"/>
     </row>
     <row r="626" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G626" s="19"/>
+      <c r="G626" s="17"/>
       <c r="H626" s="3"/>
       <c r="I626" s="2"/>
     </row>
     <row r="627" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G627" s="19"/>
+      <c r="G627" s="17"/>
       <c r="H627" s="3"/>
       <c r="I627" s="2"/>
     </row>
     <row r="628" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G628" s="19"/>
+      <c r="G628" s="17"/>
       <c r="H628" s="3"/>
       <c r="I628" s="2"/>
     </row>
     <row r="629" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G629" s="19"/>
+      <c r="G629" s="17"/>
       <c r="H629" s="3"/>
       <c r="I629" s="2"/>
     </row>
     <row r="630" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G630" s="19"/>
+      <c r="G630" s="17"/>
       <c r="H630" s="3"/>
       <c r="I630" s="2"/>
     </row>
     <row r="631" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G631" s="19"/>
+      <c r="G631" s="17"/>
       <c r="H631" s="3"/>
       <c r="I631" s="2"/>
     </row>
     <row r="632" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G632" s="19"/>
+      <c r="G632" s="17"/>
       <c r="H632" s="3"/>
       <c r="I632" s="2"/>
     </row>
     <row r="633" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G633" s="19"/>
+      <c r="G633" s="17"/>
       <c r="H633" s="3"/>
       <c r="I633" s="2"/>
     </row>
     <row r="634" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G634" s="19"/>
+      <c r="G634" s="17"/>
       <c r="H634" s="3"/>
       <c r="I634" s="2"/>
     </row>
     <row r="635" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G635" s="19"/>
+      <c r="G635" s="17"/>
       <c r="H635" s="3"/>
       <c r="I635" s="2"/>
     </row>
     <row r="636" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G636" s="19"/>
+      <c r="G636" s="17"/>
       <c r="H636" s="3"/>
       <c r="I636" s="2"/>
     </row>
     <row r="637" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G637" s="19"/>
+      <c r="G637" s="17"/>
       <c r="H637" s="3"/>
       <c r="I637" s="2"/>
     </row>
     <row r="638" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G638" s="19"/>
+      <c r="G638" s="17"/>
       <c r="H638" s="3"/>
       <c r="I638" s="2"/>
     </row>
     <row r="639" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G639" s="19"/>
+      <c r="G639" s="17"/>
       <c r="H639" s="3"/>
       <c r="I639" s="2"/>
     </row>
     <row r="640" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G640" s="19"/>
+      <c r="G640" s="17"/>
       <c r="H640" s="3"/>
       <c r="I640" s="2"/>
     </row>
     <row r="641" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G641" s="19"/>
+      <c r="G641" s="17"/>
       <c r="H641" s="3"/>
       <c r="I641" s="2"/>
     </row>
     <row r="642" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G642" s="19"/>
+      <c r="G642" s="17"/>
       <c r="H642" s="3"/>
       <c r="I642" s="2"/>
     </row>
     <row r="643" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G643" s="19"/>
+      <c r="G643" s="17"/>
       <c r="H643" s="3"/>
       <c r="I643" s="2"/>
     </row>
     <row r="644" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G644" s="19"/>
+      <c r="G644" s="17"/>
       <c r="H644" s="3"/>
       <c r="I644" s="2"/>
     </row>
     <row r="645" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G645" s="19"/>
+      <c r="G645" s="17"/>
       <c r="H645" s="3"/>
       <c r="I645" s="2"/>
     </row>
     <row r="646" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G646" s="19"/>
+      <c r="G646" s="17"/>
       <c r="H646" s="3"/>
       <c r="I646" s="2"/>
     </row>
     <row r="647" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G647" s="19"/>
+      <c r="G647" s="17"/>
       <c r="H647" s="3"/>
       <c r="I647" s="2"/>
     </row>
     <row r="648" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G648" s="19"/>
+      <c r="G648" s="17"/>
       <c r="H648" s="3"/>
       <c r="I648" s="2"/>
     </row>
     <row r="649" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G649" s="19"/>
+      <c r="G649" s="17"/>
       <c r="H649" s="3"/>
       <c r="I649" s="2"/>
     </row>
     <row r="650" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G650" s="19"/>
+      <c r="G650" s="17"/>
       <c r="H650" s="3"/>
       <c r="I650" s="2"/>
     </row>
     <row r="651" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G651" s="19"/>
+      <c r="G651" s="17"/>
       <c r="H651" s="3"/>
       <c r="I651" s="2"/>
     </row>
     <row r="652" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G652" s="19"/>
+      <c r="G652" s="17"/>
       <c r="H652" s="3"/>
       <c r="I652" s="2"/>
     </row>
     <row r="653" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G653" s="19"/>
+      <c r="G653" s="17"/>
       <c r="H653" s="3"/>
       <c r="I653" s="2"/>
     </row>
     <row r="654" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G654" s="19"/>
+      <c r="G654" s="17"/>
       <c r="H654" s="3"/>
       <c r="I654" s="2"/>
     </row>
     <row r="655" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G655" s="19"/>
+      <c r="G655" s="17"/>
       <c r="H655" s="3"/>
       <c r="I655" s="2"/>
     </row>
     <row r="656" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G656" s="19"/>
+      <c r="G656" s="17"/>
       <c r="H656" s="3"/>
       <c r="I656" s="2"/>
     </row>
     <row r="657" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G657" s="19"/>
+      <c r="G657" s="17"/>
       <c r="H657" s="3"/>
       <c r="I657" s="2"/>
     </row>
     <row r="658" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G658" s="19"/>
+      <c r="G658" s="17"/>
       <c r="H658" s="3"/>
       <c r="I658" s="2"/>
     </row>
     <row r="659" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G659" s="19"/>
+      <c r="G659" s="17"/>
       <c r="H659" s="3"/>
       <c r="I659" s="2"/>
     </row>
     <row r="660" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G660" s="19"/>
+      <c r="G660" s="17"/>
       <c r="H660" s="3"/>
       <c r="I660" s="2"/>
     </row>
     <row r="661" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G661" s="19"/>
+      <c r="G661" s="17"/>
       <c r="H661" s="3"/>
       <c r="I661" s="2"/>
     </row>
     <row r="662" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G662" s="19"/>
+      <c r="G662" s="17"/>
       <c r="H662" s="3"/>
       <c r="I662" s="2"/>
     </row>
     <row r="663" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G663" s="19"/>
+      <c r="G663" s="17"/>
       <c r="H663" s="3"/>
       <c r="I663" s="2"/>
     </row>
     <row r="664" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G664" s="19"/>
+      <c r="G664" s="17"/>
       <c r="H664" s="3"/>
       <c r="I664" s="2"/>
     </row>
     <row r="665" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G665" s="19"/>
+      <c r="G665" s="17"/>
       <c r="H665" s="3"/>
       <c r="I665" s="2"/>
     </row>
     <row r="666" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G666" s="19"/>
+      <c r="G666" s="17"/>
       <c r="H666" s="3"/>
       <c r="I666" s="2"/>
     </row>
     <row r="667" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G667" s="19"/>
+      <c r="G667" s="17"/>
       <c r="H667" s="3"/>
       <c r="I667" s="2"/>
     </row>
     <row r="668" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G668" s="19"/>
+      <c r="G668" s="17"/>
       <c r="H668" s="3"/>
       <c r="I668" s="2"/>
     </row>
     <row r="669" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G669" s="19"/>
+      <c r="G669" s="17"/>
       <c r="H669" s="3"/>
       <c r="I669" s="2"/>
     </row>
     <row r="670" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G670" s="19"/>
+      <c r="G670" s="17"/>
       <c r="H670" s="3"/>
       <c r="I670" s="2"/>
     </row>
     <row r="671" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G671" s="19"/>
+      <c r="G671" s="17"/>
       <c r="H671" s="3"/>
       <c r="I671" s="2"/>
     </row>
     <row r="672" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G672" s="19"/>
+      <c r="G672" s="17"/>
       <c r="H672" s="3"/>
       <c r="I672" s="2"/>
     </row>
     <row r="673" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G673" s="19"/>
+      <c r="G673" s="17"/>
       <c r="H673" s="3"/>
       <c r="I673" s="2"/>
     </row>
     <row r="674" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G674" s="19"/>
+      <c r="G674" s="17"/>
       <c r="H674" s="3"/>
       <c r="I674" s="2"/>
     </row>
     <row r="675" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G675" s="19"/>
+      <c r="G675" s="17"/>
       <c r="H675" s="3"/>
       <c r="I675" s="2"/>
     </row>
     <row r="676" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G676" s="19"/>
+      <c r="G676" s="17"/>
       <c r="H676" s="3"/>
       <c r="I676" s="2"/>
     </row>
     <row r="677" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G677" s="19"/>
+      <c r="G677" s="17"/>
       <c r="H677" s="3"/>
       <c r="I677" s="2"/>
     </row>
     <row r="678" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G678" s="19"/>
+      <c r="G678" s="17"/>
       <c r="H678" s="3"/>
       <c r="I678" s="2"/>
     </row>
     <row r="679" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G679" s="19"/>
+      <c r="G679" s="17"/>
       <c r="H679" s="3"/>
       <c r="I679" s="2"/>
     </row>
     <row r="680" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G680" s="19"/>
+      <c r="G680" s="17"/>
       <c r="H680" s="3"/>
       <c r="I680" s="2"/>
     </row>
     <row r="681" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G681" s="19"/>
+      <c r="G681" s="17"/>
       <c r="H681" s="3"/>
       <c r="I681" s="2"/>
     </row>
     <row r="682" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G682" s="19"/>
+      <c r="G682" s="17"/>
       <c r="H682" s="3"/>
       <c r="I682" s="2"/>
     </row>
     <row r="683" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G683" s="19"/>
+      <c r="G683" s="17"/>
       <c r="H683" s="3"/>
       <c r="I683" s="2"/>
     </row>
     <row r="684" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G684" s="19"/>
+      <c r="G684" s="17"/>
       <c r="H684" s="3"/>
       <c r="I684" s="2"/>
     </row>
     <row r="685" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G685" s="19"/>
+      <c r="G685" s="17"/>
       <c r="H685" s="3"/>
       <c r="I685" s="2"/>
     </row>
     <row r="686" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G686" s="19"/>
+      <c r="G686" s="17"/>
       <c r="H686" s="3"/>
       <c r="I686" s="2"/>
     </row>
     <row r="687" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G687" s="19"/>
+      <c r="G687" s="17"/>
       <c r="H687" s="3"/>
       <c r="I687" s="2"/>
     </row>
     <row r="688" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G688" s="19"/>
+      <c r="G688" s="17"/>
       <c r="H688" s="3"/>
       <c r="I688" s="2"/>
     </row>
     <row r="689" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G689" s="19"/>
+      <c r="G689" s="17"/>
       <c r="H689" s="3"/>
       <c r="I689" s="2"/>
     </row>
     <row r="690" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G690" s="19"/>
+      <c r="G690" s="17"/>
       <c r="H690" s="3"/>
       <c r="I690" s="2"/>
     </row>
     <row r="691" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G691" s="19"/>
+      <c r="G691" s="17"/>
       <c r="H691" s="3"/>
       <c r="I691" s="2"/>
     </row>
     <row r="692" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G692" s="19"/>
+      <c r="G692" s="17"/>
       <c r="H692" s="3"/>
       <c r="I692" s="2"/>
     </row>
     <row r="693" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G693" s="19"/>
+      <c r="G693" s="17"/>
       <c r="H693" s="3"/>
       <c r="I693" s="2"/>
     </row>
     <row r="694" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G694" s="19"/>
+      <c r="G694" s="17"/>
       <c r="H694" s="3"/>
       <c r="I694" s="2"/>
     </row>
     <row r="695" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G695" s="19"/>
+      <c r="G695" s="17"/>
       <c r="H695" s="3"/>
       <c r="I695" s="2"/>
     </row>
     <row r="696" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G696" s="19"/>
+      <c r="G696" s="17"/>
       <c r="H696" s="3"/>
       <c r="I696" s="2"/>
     </row>
     <row r="697" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G697" s="19"/>
+      <c r="G697" s="17"/>
       <c r="H697" s="3"/>
       <c r="I697" s="2"/>
     </row>
     <row r="698" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G698" s="19"/>
+      <c r="G698" s="17"/>
       <c r="H698" s="3"/>
       <c r="I698" s="2"/>
     </row>
     <row r="699" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G699" s="19"/>
+      <c r="G699" s="17"/>
       <c r="H699" s="3"/>
       <c r="I699" s="2"/>
     </row>
     <row r="700" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G700" s="19"/>
+      <c r="G700" s="17"/>
       <c r="H700" s="3"/>
       <c r="I700" s="2"/>
     </row>
     <row r="701" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G701" s="19"/>
+      <c r="G701" s="17"/>
       <c r="H701" s="3"/>
       <c r="I701" s="2"/>
     </row>
     <row r="702" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G702" s="19"/>
+      <c r="G702" s="17"/>
       <c r="H702" s="3"/>
       <c r="I702" s="2"/>
     </row>
     <row r="703" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G703" s="19"/>
+      <c r="G703" s="17"/>
       <c r="H703" s="3"/>
       <c r="I703" s="2"/>
     </row>
     <row r="704" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G704" s="19"/>
+      <c r="G704" s="17"/>
       <c r="H704" s="3"/>
       <c r="I704" s="2"/>
     </row>
     <row r="705" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G705" s="19"/>
+      <c r="G705" s="17"/>
       <c r="H705" s="3"/>
       <c r="I705" s="2"/>
     </row>
     <row r="706" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G706" s="19"/>
+      <c r="G706" s="17"/>
       <c r="H706" s="3"/>
       <c r="I706" s="2"/>
     </row>
     <row r="707" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G707" s="19"/>
+      <c r="G707" s="17"/>
       <c r="H707" s="3"/>
       <c r="I707" s="2"/>
     </row>
     <row r="708" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G708" s="19"/>
+      <c r="G708" s="17"/>
       <c r="H708" s="3"/>
       <c r="I708" s="2"/>
     </row>
     <row r="709" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G709" s="19"/>
+      <c r="G709" s="17"/>
       <c r="H709" s="3"/>
       <c r="I709" s="2"/>
     </row>
     <row r="710" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G710" s="19"/>
+      <c r="G710" s="17"/>
       <c r="H710" s="3"/>
       <c r="I710" s="2"/>
     </row>
     <row r="711" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G711" s="19"/>
+      <c r="G711" s="17"/>
       <c r="H711" s="3"/>
       <c r="I711" s="2"/>
     </row>
     <row r="712" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G712" s="19"/>
+      <c r="G712" s="17"/>
       <c r="H712" s="3"/>
       <c r="I712" s="2"/>
     </row>
     <row r="713" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G713" s="19"/>
+      <c r="G713" s="17"/>
       <c r="H713" s="3"/>
       <c r="I713" s="2"/>
     </row>
     <row r="714" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G714" s="19"/>
+      <c r="G714" s="17"/>
       <c r="H714" s="3"/>
       <c r="I714" s="2"/>
     </row>
     <row r="715" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G715" s="19"/>
+      <c r="G715" s="17"/>
       <c r="H715" s="3"/>
       <c r="I715" s="2"/>
     </row>
     <row r="716" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G716" s="19"/>
+      <c r="G716" s="17"/>
       <c r="H716" s="3"/>
       <c r="I716" s="2"/>
     </row>
     <row r="717" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G717" s="19"/>
+      <c r="G717" s="17"/>
       <c r="H717" s="3"/>
       <c r="I717" s="2"/>
     </row>
     <row r="718" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G718" s="19"/>
+      <c r="G718" s="17"/>
       <c r="H718" s="3"/>
       <c r="I718" s="2"/>
     </row>
     <row r="719" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G719" s="19"/>
+      <c r="G719" s="17"/>
       <c r="H719" s="3"/>
       <c r="I719" s="2"/>
     </row>
     <row r="720" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G720" s="19"/>
+      <c r="G720" s="17"/>
       <c r="H720" s="3"/>
       <c r="I720" s="2"/>
     </row>
     <row r="721" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G721" s="19"/>
+      <c r="G721" s="17"/>
       <c r="H721" s="3"/>
       <c r="I721" s="2"/>
     </row>
     <row r="722" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G722" s="19"/>
+      <c r="G722" s="17"/>
       <c r="H722" s="3"/>
       <c r="I722" s="2"/>
     </row>
     <row r="723" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G723" s="19"/>
+      <c r="G723" s="17"/>
       <c r="H723" s="3"/>
       <c r="I723" s="2"/>
     </row>
     <row r="724" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G724" s="19"/>
+      <c r="G724" s="17"/>
       <c r="H724" s="3"/>
       <c r="I724" s="2"/>
     </row>
     <row r="725" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G725" s="19"/>
+      <c r="G725" s="17"/>
       <c r="H725" s="3"/>
       <c r="I725" s="2"/>
     </row>
     <row r="726" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G726" s="19"/>
+      <c r="G726" s="17"/>
       <c r="H726" s="3"/>
       <c r="I726" s="2"/>
     </row>
     <row r="727" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G727" s="19"/>
+      <c r="G727" s="17"/>
       <c r="H727" s="3"/>
       <c r="I727" s="2"/>
     </row>
     <row r="728" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G728" s="19"/>
+      <c r="G728" s="17"/>
       <c r="H728" s="3"/>
       <c r="I728" s="2"/>
     </row>
     <row r="729" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G729" s="19"/>
+      <c r="G729" s="17"/>
       <c r="H729" s="3"/>
       <c r="I729" s="2"/>
     </row>
     <row r="730" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G730" s="19"/>
+      <c r="G730" s="17"/>
       <c r="H730" s="3"/>
       <c r="I730" s="2"/>
     </row>
     <row r="731" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G731" s="19"/>
+      <c r="G731" s="17"/>
       <c r="H731" s="3"/>
       <c r="I731" s="2"/>
     </row>
     <row r="732" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G732" s="19"/>
+      <c r="G732" s="17"/>
       <c r="H732" s="3"/>
       <c r="I732" s="2"/>
     </row>
     <row r="733" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G733" s="19"/>
+      <c r="G733" s="17"/>
       <c r="H733" s="3"/>
       <c r="I733" s="2"/>
     </row>
     <row r="734" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G734" s="19"/>
+      <c r="G734" s="17"/>
       <c r="H734" s="3"/>
       <c r="I734" s="2"/>
     </row>
     <row r="735" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G735" s="19"/>
+      <c r="G735" s="17"/>
       <c r="H735" s="3"/>
       <c r="I735" s="2"/>
     </row>
     <row r="736" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G736" s="19"/>
+      <c r="G736" s="17"/>
       <c r="H736" s="3"/>
       <c r="I736" s="2"/>
     </row>
     <row r="737" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G737" s="19"/>
+      <c r="G737" s="17"/>
       <c r="H737" s="3"/>
       <c r="I737" s="2"/>
     </row>
     <row r="738" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G738" s="19"/>
+      <c r="G738" s="17"/>
       <c r="H738" s="3"/>
       <c r="I738" s="2"/>
     </row>
     <row r="739" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G739" s="19"/>
+      <c r="G739" s="17"/>
       <c r="H739" s="3"/>
       <c r="I739" s="2"/>
     </row>
     <row r="740" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G740" s="19"/>
+      <c r="G740" s="17"/>
       <c r="H740" s="3"/>
       <c r="I740" s="2"/>
     </row>
     <row r="741" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G741" s="19"/>
+      <c r="G741" s="17"/>
       <c r="H741" s="3"/>
       <c r="I741" s="2"/>
     </row>
     <row r="742" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G742" s="19"/>
+      <c r="G742" s="17"/>
       <c r="H742" s="3"/>
       <c r="I742" s="2"/>
     </row>
     <row r="743" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G743" s="19"/>
+      <c r="G743" s="17"/>
       <c r="H743" s="3"/>
       <c r="I743" s="2"/>
     </row>
     <row r="744" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G744" s="19"/>
+      <c r="G744" s="17"/>
       <c r="H744" s="3"/>
       <c r="I744" s="2"/>
     </row>
     <row r="745" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G745" s="19"/>
+      <c r="G745" s="17"/>
       <c r="H745" s="3"/>
       <c r="I745" s="2"/>
     </row>
     <row r="746" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G746" s="19"/>
+      <c r="G746" s="17"/>
       <c r="H746" s="3"/>
       <c r="I746" s="2"/>
     </row>
     <row r="747" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G747" s="19"/>
+      <c r="G747" s="17"/>
       <c r="H747" s="3"/>
       <c r="I747" s="2"/>
     </row>
     <row r="748" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G748" s="19"/>
+      <c r="G748" s="17"/>
       <c r="H748" s="3"/>
       <c r="I748" s="2"/>
     </row>
     <row r="749" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G749" s="19"/>
+      <c r="G749" s="17"/>
       <c r="H749" s="3"/>
       <c r="I749" s="2"/>
     </row>
     <row r="750" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G750" s="19"/>
+      <c r="G750" s="17"/>
       <c r="H750" s="3"/>
       <c r="I750" s="2"/>
     </row>
     <row r="751" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G751" s="19"/>
+      <c r="G751" s="17"/>
       <c r="H751" s="3"/>
       <c r="I751" s="2"/>
     </row>
     <row r="752" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G752" s="19"/>
+      <c r="G752" s="17"/>
       <c r="H752" s="3"/>
       <c r="I752" s="2"/>
     </row>
     <row r="753" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G753" s="19"/>
+      <c r="G753" s="17"/>
       <c r="H753" s="3"/>
       <c r="I753" s="2"/>
     </row>
     <row r="754" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G754" s="19"/>
+      <c r="G754" s="17"/>
       <c r="H754" s="3"/>
       <c r="I754" s="2"/>
     </row>
     <row r="755" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G755" s="19"/>
+      <c r="G755" s="17"/>
       <c r="H755" s="3"/>
       <c r="I755" s="2"/>
     </row>
     <row r="756" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G756" s="19"/>
+      <c r="G756" s="17"/>
       <c r="H756" s="3"/>
       <c r="I756" s="2"/>
     </row>
     <row r="757" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G757" s="19"/>
+      <c r="G757" s="17"/>
       <c r="H757" s="3"/>
       <c r="I757" s="2"/>
     </row>
     <row r="758" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G758" s="19"/>
+      <c r="G758" s="17"/>
       <c r="H758" s="3"/>
       <c r="I758" s="2"/>
     </row>
     <row r="759" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G759" s="19"/>
+      <c r="G759" s="17"/>
       <c r="H759" s="3"/>
       <c r="I759" s="2"/>
     </row>
     <row r="760" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G760" s="19"/>
+      <c r="G760" s="17"/>
       <c r="H760" s="3"/>
       <c r="I760" s="2"/>
     </row>
     <row r="761" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G761" s="19"/>
+      <c r="G761" s="17"/>
       <c r="H761" s="3"/>
       <c r="I761" s="2"/>
     </row>
     <row r="762" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G762" s="19"/>
+      <c r="G762" s="17"/>
       <c r="H762" s="3"/>
       <c r="I762" s="2"/>
     </row>
     <row r="763" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G763" s="19"/>
+      <c r="G763" s="17"/>
       <c r="H763" s="3"/>
       <c r="I763" s="2"/>
     </row>
     <row r="764" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G764" s="19"/>
+      <c r="G764" s="17"/>
       <c r="H764" s="3"/>
       <c r="I764" s="2"/>
     </row>
     <row r="765" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G765" s="19"/>
+      <c r="G765" s="17"/>
       <c r="H765" s="3"/>
       <c r="I765" s="2"/>
     </row>
     <row r="766" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G766" s="19"/>
+      <c r="G766" s="17"/>
       <c r="H766" s="3"/>
       <c r="I766" s="2"/>
     </row>
     <row r="767" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G767" s="19"/>
+      <c r="G767" s="17"/>
       <c r="H767" s="3"/>
       <c r="I767" s="2"/>
     </row>
     <row r="768" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G768" s="19"/>
+      <c r="G768" s="17"/>
       <c r="H768" s="3"/>
       <c r="I768" s="2"/>
     </row>
     <row r="769" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G769" s="19"/>
+      <c r="G769" s="17"/>
       <c r="H769" s="3"/>
       <c r="I769" s="2"/>
     </row>
     <row r="770" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G770" s="19"/>
+      <c r="G770" s="17"/>
       <c r="H770" s="3"/>
       <c r="I770" s="2"/>
     </row>
     <row r="771" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G771" s="19"/>
+      <c r="G771" s="17"/>
       <c r="H771" s="3"/>
       <c r="I771" s="2"/>
     </row>
     <row r="772" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G772" s="19"/>
+      <c r="G772" s="17"/>
       <c r="H772" s="3"/>
       <c r="I772" s="2"/>
     </row>
     <row r="773" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G773" s="19"/>
+      <c r="G773" s="17"/>
       <c r="H773" s="3"/>
       <c r="I773" s="2"/>
     </row>
     <row r="774" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G774" s="19"/>
+      <c r="G774" s="17"/>
       <c r="H774" s="3"/>
       <c r="I774" s="2"/>
     </row>
     <row r="775" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G775" s="19"/>
+      <c r="G775" s="17"/>
       <c r="H775" s="3"/>
       <c r="I775" s="2"/>
     </row>
     <row r="776" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G776" s="19"/>
+      <c r="G776" s="17"/>
       <c r="H776" s="3"/>
       <c r="I776" s="2"/>
     </row>
     <row r="777" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G777" s="19"/>
+      <c r="G777" s="17"/>
       <c r="H777" s="3"/>
       <c r="I777" s="2"/>
     </row>
     <row r="778" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G778" s="19"/>
+      <c r="G778" s="17"/>
       <c r="H778" s="3"/>
       <c r="I778" s="2"/>
     </row>
     <row r="779" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G779" s="19"/>
+      <c r="G779" s="17"/>
       <c r="H779" s="3"/>
       <c r="I779" s="2"/>
     </row>
     <row r="780" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G780" s="19"/>
+      <c r="G780" s="17"/>
       <c r="H780" s="3"/>
       <c r="I780" s="2"/>
     </row>
     <row r="781" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G781" s="19"/>
+      <c r="G781" s="17"/>
       <c r="H781" s="3"/>
       <c r="I781" s="2"/>
     </row>
     <row r="782" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G782" s="19"/>
+      <c r="G782" s="17"/>
       <c r="H782" s="3"/>
       <c r="I782" s="2"/>
     </row>
     <row r="783" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G783" s="19"/>
+      <c r="G783" s="17"/>
       <c r="H783" s="3"/>
       <c r="I783" s="2"/>
     </row>
     <row r="784" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G784" s="19"/>
+      <c r="G784" s="17"/>
       <c r="H784" s="3"/>
       <c r="I784" s="2"/>
     </row>
     <row r="785" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G785" s="19"/>
+      <c r="G785" s="17"/>
       <c r="H785" s="3"/>
       <c r="I785" s="2"/>
     </row>
     <row r="786" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G786" s="19"/>
+      <c r="G786" s="17"/>
       <c r="H786" s="3"/>
       <c r="I786" s="2"/>
     </row>
     <row r="787" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G787" s="19"/>
+      <c r="G787" s="17"/>
       <c r="H787" s="3"/>
       <c r="I787" s="2"/>
     </row>
     <row r="788" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G788" s="19"/>
+      <c r="G788" s="17"/>
       <c r="H788" s="3"/>
       <c r="I788" s="2"/>
     </row>
     <row r="789" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G789" s="19"/>
+      <c r="G789" s="17"/>
       <c r="H789" s="3"/>
       <c r="I789" s="2"/>
     </row>
     <row r="790" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G790" s="19"/>
+      <c r="G790" s="17"/>
       <c r="H790" s="3"/>
       <c r="I790" s="2"/>
     </row>
     <row r="791" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G791" s="19"/>
+      <c r="G791" s="17"/>
       <c r="H791" s="3"/>
       <c r="I791" s="2"/>
     </row>
     <row r="792" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G792" s="19"/>
+      <c r="G792" s="17"/>
       <c r="H792" s="3"/>
       <c r="I792" s="2"/>
     </row>
     <row r="793" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G793" s="19"/>
+      <c r="G793" s="17"/>
       <c r="H793" s="3"/>
       <c r="I793" s="2"/>
     </row>
     <row r="794" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G794" s="19"/>
+      <c r="G794" s="17"/>
       <c r="H794" s="3"/>
       <c r="I794" s="2"/>
     </row>
     <row r="795" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G795" s="19"/>
+      <c r="G795" s="17"/>
       <c r="H795" s="3"/>
       <c r="I795" s="2"/>
     </row>
     <row r="796" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G796" s="19"/>
+      <c r="G796" s="17"/>
       <c r="H796" s="3"/>
       <c r="I796" s="2"/>
     </row>
     <row r="797" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G797" s="19"/>
+      <c r="G797" s="17"/>
       <c r="H797" s="3"/>
       <c r="I797" s="2"/>
     </row>
     <row r="798" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G798" s="19"/>
+      <c r="G798" s="17"/>
       <c r="H798" s="3"/>
       <c r="I798" s="2"/>
     </row>
     <row r="799" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G799" s="19"/>
+      <c r="G799" s="17"/>
       <c r="H799" s="3"/>
       <c r="I799" s="2"/>
     </row>
     <row r="800" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G800" s="19"/>
+      <c r="G800" s="17"/>
       <c r="H800" s="3"/>
       <c r="I800" s="2"/>
     </row>
     <row r="801" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G801" s="19"/>
+      <c r="G801" s="17"/>
       <c r="H801" s="3"/>
       <c r="I801" s="2"/>
     </row>
     <row r="802" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G802" s="19"/>
+      <c r="G802" s="17"/>
       <c r="H802" s="3"/>
       <c r="I802" s="2"/>
     </row>
     <row r="803" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G803" s="19"/>
+      <c r="G803" s="17"/>
       <c r="H803" s="3"/>
       <c r="I803" s="2"/>
     </row>
     <row r="804" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G804" s="19"/>
+      <c r="G804" s="17"/>
       <c r="H804" s="3"/>
       <c r="I804" s="2"/>
     </row>
     <row r="805" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G805" s="19"/>
+      <c r="G805" s="17"/>
       <c r="H805" s="3"/>
       <c r="I805" s="2"/>
     </row>
     <row r="806" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G806" s="19"/>
+      <c r="G806" s="17"/>
       <c r="H806" s="3"/>
       <c r="I806" s="2"/>
     </row>
     <row r="807" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G807" s="19"/>
+      <c r="G807" s="17"/>
       <c r="H807" s="3"/>
       <c r="I807" s="2"/>
     </row>
     <row r="808" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G808" s="19"/>
+      <c r="G808" s="17"/>
       <c r="H808" s="3"/>
       <c r="I808" s="2"/>
     </row>
     <row r="809" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G809" s="19"/>
+      <c r="G809" s="17"/>
       <c r="H809" s="3"/>
       <c r="I809" s="2"/>
     </row>
     <row r="810" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G810" s="19"/>
+      <c r="G810" s="17"/>
       <c r="H810" s="3"/>
       <c r="I810" s="2"/>
     </row>
     <row r="811" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G811" s="19"/>
+      <c r="G811" s="17"/>
       <c r="H811" s="3"/>
       <c r="I811" s="2"/>
     </row>
     <row r="812" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G812" s="19"/>
+      <c r="G812" s="17"/>
       <c r="H812" s="3"/>
       <c r="I812" s="2"/>
     </row>
     <row r="813" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G813" s="19"/>
+      <c r="G813" s="17"/>
       <c r="H813" s="3"/>
       <c r="I813" s="2"/>
     </row>
     <row r="814" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G814" s="19"/>
+      <c r="G814" s="17"/>
       <c r="H814" s="3"/>
       <c r="I814" s="2"/>
     </row>
     <row r="815" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G815" s="19"/>
+      <c r="G815" s="17"/>
       <c r="H815" s="3"/>
       <c r="I815" s="2"/>
     </row>
     <row r="816" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G816" s="19"/>
+      <c r="G816" s="17"/>
       <c r="H816" s="3"/>
       <c r="I816" s="2"/>
     </row>
     <row r="817" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G817" s="19"/>
+      <c r="G817" s="17"/>
       <c r="H817" s="3"/>
       <c r="I817" s="2"/>
     </row>
     <row r="818" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G818" s="19"/>
+      <c r="G818" s="17"/>
       <c r="H818" s="3"/>
       <c r="I818" s="2"/>
     </row>
     <row r="819" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G819" s="19"/>
+      <c r="G819" s="17"/>
       <c r="H819" s="3"/>
       <c r="I819" s="2"/>
     </row>
     <row r="820" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G820" s="19"/>
+      <c r="G820" s="17"/>
       <c r="H820" s="3"/>
       <c r="I820" s="2"/>
     </row>
     <row r="821" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G821" s="19"/>
+      <c r="G821" s="17"/>
       <c r="H821" s="3"/>
       <c r="I821" s="2"/>
     </row>
     <row r="822" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G822" s="19"/>
+      <c r="G822" s="17"/>
       <c r="H822" s="3"/>
       <c r="I822" s="2"/>
     </row>
     <row r="823" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G823" s="19"/>
+      <c r="G823" s="17"/>
       <c r="H823" s="3"/>
       <c r="I823" s="2"/>
     </row>
     <row r="824" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G824" s="19"/>
+      <c r="G824" s="17"/>
       <c r="H824" s="3"/>
       <c r="I824" s="2"/>
     </row>
     <row r="825" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G825" s="19"/>
+      <c r="G825" s="17"/>
       <c r="H825" s="3"/>
       <c r="I825" s="2"/>
     </row>
     <row r="826" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G826" s="19"/>
+      <c r="G826" s="17"/>
       <c r="H826" s="3"/>
       <c r="I826" s="2"/>
     </row>
     <row r="827" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G827" s="19"/>
+      <c r="G827" s="17"/>
       <c r="H827" s="3"/>
       <c r="I827" s="2"/>
     </row>
     <row r="828" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G828" s="19"/>
+      <c r="G828" s="17"/>
       <c r="H828" s="3"/>
       <c r="I828" s="2"/>
     </row>
     <row r="829" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G829" s="19"/>
+      <c r="G829" s="17"/>
       <c r="H829" s="3"/>
       <c r="I829" s="2"/>
     </row>
     <row r="830" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G830" s="19"/>
+      <c r="G830" s="17"/>
       <c r="H830" s="3"/>
       <c r="I830" s="2"/>
     </row>
     <row r="831" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G831" s="19"/>
+      <c r="G831" s="17"/>
       <c r="H831" s="3"/>
       <c r="I831" s="2"/>
     </row>
     <row r="832" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G832" s="19"/>
+      <c r="G832" s="17"/>
       <c r="H832" s="3"/>
       <c r="I832" s="2"/>
     </row>
     <row r="833" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G833" s="19"/>
+      <c r="G833" s="17"/>
       <c r="H833" s="3"/>
       <c r="I833" s="2"/>
     </row>
     <row r="834" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G834" s="19"/>
+      <c r="G834" s="17"/>
       <c r="H834" s="3"/>
       <c r="I834" s="2"/>
     </row>
     <row r="835" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G835" s="19"/>
+      <c r="G835" s="17"/>
       <c r="H835" s="3"/>
       <c r="I835" s="2"/>
     </row>
     <row r="836" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G836" s="19"/>
+      <c r="G836" s="17"/>
       <c r="H836" s="3"/>
       <c r="I836" s="2"/>
     </row>
     <row r="837" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G837" s="19"/>
+      <c r="G837" s="17"/>
       <c r="H837" s="3"/>
       <c r="I837" s="2"/>
     </row>
     <row r="838" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G838" s="19"/>
+      <c r="G838" s="17"/>
       <c r="H838" s="3"/>
       <c r="I838" s="2"/>
     </row>
     <row r="839" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G839" s="19"/>
+      <c r="G839" s="17"/>
       <c r="H839" s="3"/>
       <c r="I839" s="2"/>
     </row>
     <row r="840" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G840" s="19"/>
+      <c r="G840" s="17"/>
       <c r="H840" s="3"/>
       <c r="I840" s="2"/>
     </row>
     <row r="841" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G841" s="19"/>
+      <c r="G841" s="17"/>
       <c r="H841" s="3"/>
       <c r="I841" s="2"/>
     </row>
     <row r="842" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G842" s="19"/>
+      <c r="G842" s="17"/>
       <c r="H842" s="3"/>
       <c r="I842" s="2"/>
     </row>
     <row r="843" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G843" s="19"/>
+      <c r="G843" s="17"/>
       <c r="H843" s="3"/>
       <c r="I843" s="2"/>
     </row>
     <row r="844" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G844" s="19"/>
+      <c r="G844" s="17"/>
       <c r="H844" s="3"/>
       <c r="I844" s="2"/>
     </row>
     <row r="845" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G845" s="19"/>
+      <c r="G845" s="17"/>
       <c r="H845" s="3"/>
       <c r="I845" s="2"/>
     </row>
     <row r="846" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G846" s="19"/>
+      <c r="G846" s="17"/>
       <c r="H846" s="3"/>
       <c r="I846" s="2"/>
     </row>
     <row r="847" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G847" s="19"/>
+      <c r="G847" s="17"/>
       <c r="H847" s="3"/>
       <c r="I847" s="2"/>
     </row>
     <row r="848" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G848" s="19"/>
+      <c r="G848" s="17"/>
       <c r="H848" s="3"/>
       <c r="I848" s="2"/>
     </row>
     <row r="849" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G849" s="19"/>
+      <c r="G849" s="17"/>
       <c r="H849" s="3"/>
       <c r="I849" s="2"/>
     </row>
     <row r="850" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G850" s="19"/>
+      <c r="G850" s="17"/>
       <c r="H850" s="3"/>
       <c r="I850" s="2"/>
     </row>
     <row r="851" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G851" s="19"/>
+      <c r="G851" s="17"/>
       <c r="H851" s="3"/>
       <c r="I851" s="2"/>
     </row>
     <row r="852" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G852" s="19"/>
+      <c r="G852" s="17"/>
       <c r="H852" s="3"/>
       <c r="I852" s="2"/>
     </row>
     <row r="853" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G853" s="19"/>
+      <c r="G853" s="17"/>
       <c r="H853" s="3"/>
       <c r="I853" s="2"/>
     </row>
     <row r="854" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G854" s="19"/>
+      <c r="G854" s="17"/>
       <c r="H854" s="3"/>
       <c r="I854" s="2"/>
     </row>
     <row r="855" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G855" s="19"/>
+      <c r="G855" s="17"/>
       <c r="H855" s="3"/>
       <c r="I855" s="2"/>
     </row>
     <row r="856" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G856" s="19"/>
+      <c r="G856" s="17"/>
       <c r="H856" s="3"/>
       <c r="I856" s="2"/>
     </row>
     <row r="857" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G857" s="19"/>
+      <c r="G857" s="17"/>
       <c r="H857" s="3"/>
       <c r="I857" s="2"/>
     </row>
     <row r="858" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G858" s="19"/>
+      <c r="G858" s="17"/>
       <c r="H858" s="3"/>
       <c r="I858" s="2"/>
     </row>
     <row r="859" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G859" s="19"/>
+      <c r="G859" s="17"/>
       <c r="H859" s="3"/>
       <c r="I859" s="2"/>
     </row>
     <row r="860" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G860" s="19"/>
+      <c r="G860" s="17"/>
       <c r="H860" s="3"/>
       <c r="I860" s="2"/>
     </row>
     <row r="861" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G861" s="19"/>
+      <c r="G861" s="17"/>
       <c r="H861" s="3"/>
       <c r="I861" s="2"/>
     </row>
     <row r="862" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G862" s="19"/>
+      <c r="G862" s="17"/>
       <c r="H862" s="3"/>
       <c r="I862" s="2"/>
     </row>
     <row r="863" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G863" s="19"/>
+      <c r="G863" s="17"/>
       <c r="H863" s="3"/>
       <c r="I863" s="2"/>
     </row>
     <row r="864" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G864" s="19"/>
+      <c r="G864" s="17"/>
       <c r="H864" s="3"/>
       <c r="I864" s="2"/>
     </row>
     <row r="865" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G865" s="19"/>
+      <c r="G865" s="17"/>
       <c r="H865" s="3"/>
       <c r="I865" s="2"/>
     </row>
     <row r="866" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G866" s="19"/>
+      <c r="G866" s="17"/>
       <c r="H866" s="3"/>
       <c r="I866" s="2"/>
     </row>
     <row r="867" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G867" s="19"/>
+      <c r="G867" s="17"/>
       <c r="H867" s="3"/>
       <c r="I867" s="2"/>
     </row>
     <row r="868" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G868" s="19"/>
+      <c r="G868" s="17"/>
       <c r="H868" s="3"/>
       <c r="I868" s="2"/>
     </row>
     <row r="869" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G869" s="19"/>
+      <c r="G869" s="17"/>
       <c r="H869" s="3"/>
       <c r="I869" s="2"/>
     </row>
     <row r="870" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G870" s="19"/>
+      <c r="G870" s="17"/>
       <c r="H870" s="3"/>
       <c r="I870" s="2"/>
     </row>
     <row r="871" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G871" s="19"/>
+      <c r="G871" s="17"/>
       <c r="H871" s="3"/>
       <c r="I871" s="2"/>
     </row>
     <row r="872" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G872" s="19"/>
+      <c r="G872" s="17"/>
       <c r="H872" s="3"/>
       <c r="I872" s="2"/>
     </row>
     <row r="873" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G873" s="19"/>
+      <c r="G873" s="17"/>
       <c r="H873" s="3"/>
       <c r="I873" s="2"/>
     </row>
     <row r="874" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G874" s="19"/>
+      <c r="G874" s="17"/>
       <c r="H874" s="3"/>
       <c r="I874" s="2"/>
     </row>
     <row r="875" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G875" s="19"/>
+      <c r="G875" s="17"/>
       <c r="H875" s="3"/>
       <c r="I875" s="2"/>
     </row>
     <row r="876" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G876" s="19"/>
+      <c r="G876" s="17"/>
       <c r="H876" s="3"/>
       <c r="I876" s="2"/>
     </row>
     <row r="877" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G877" s="19"/>
+      <c r="G877" s="17"/>
       <c r="H877" s="3"/>
       <c r="I877" s="2"/>
     </row>
     <row r="878" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G878" s="19"/>
+      <c r="G878" s="17"/>
       <c r="H878" s="3"/>
       <c r="I878" s="2"/>
     </row>
     <row r="879" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G879" s="19"/>
+      <c r="G879" s="17"/>
       <c r="H879" s="3"/>
       <c r="I879" s="2"/>
     </row>
     <row r="880" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G880" s="19"/>
+      <c r="G880" s="17"/>
       <c r="H880" s="3"/>
       <c r="I880" s="2"/>
     </row>
     <row r="881" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G881" s="19"/>
+      <c r="G881" s="17"/>
       <c r="H881" s="3"/>
       <c r="I881" s="2"/>
     </row>
     <row r="882" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G882" s="19"/>
+      <c r="G882" s="17"/>
       <c r="H882" s="3"/>
       <c r="I882" s="2"/>
     </row>
     <row r="883" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G883" s="19"/>
+      <c r="G883" s="17"/>
       <c r="H883" s="3"/>
       <c r="I883" s="2"/>
     </row>
     <row r="884" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G884" s="19"/>
+      <c r="G884" s="17"/>
       <c r="H884" s="3"/>
       <c r="I884" s="2"/>
     </row>
     <row r="885" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G885" s="19"/>
+      <c r="G885" s="17"/>
       <c r="H885" s="3"/>
       <c r="I885" s="2"/>
     </row>
     <row r="886" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G886" s="19"/>
+      <c r="G886" s="17"/>
       <c r="H886" s="3"/>
       <c r="I886" s="2"/>
     </row>
     <row r="887" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G887" s="19"/>
+      <c r="G887" s="17"/>
       <c r="H887" s="3"/>
       <c r="I887" s="2"/>
     </row>
     <row r="888" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G888" s="19"/>
+      <c r="G888" s="17"/>
       <c r="H888" s="3"/>
       <c r="I888" s="2"/>
     </row>
     <row r="889" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G889" s="19"/>
+      <c r="G889" s="17"/>
       <c r="H889" s="3"/>
       <c r="I889" s="2"/>
     </row>
     <row r="890" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G890" s="19"/>
+      <c r="G890" s="17"/>
       <c r="H890" s="3"/>
       <c r="I890" s="2"/>
     </row>
     <row r="891" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G891" s="19"/>
+      <c r="G891" s="17"/>
       <c r="H891" s="3"/>
       <c r="I891" s="2"/>
     </row>
     <row r="892" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G892" s="19"/>
+      <c r="G892" s="17"/>
       <c r="H892" s="3"/>
       <c r="I892" s="2"/>
     </row>
     <row r="893" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G893" s="19"/>
+      <c r="G893" s="17"/>
       <c r="H893" s="3"/>
       <c r="I893" s="2"/>
     </row>
     <row r="894" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G894" s="19"/>
+      <c r="G894" s="17"/>
       <c r="H894" s="3"/>
       <c r="I894" s="2"/>
     </row>
     <row r="895" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G895" s="19"/>
+      <c r="G895" s="17"/>
       <c r="H895" s="3"/>
       <c r="I895" s="2"/>
     </row>
     <row r="896" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G896" s="19"/>
+      <c r="G896" s="17"/>
       <c r="H896" s="3"/>
       <c r="I896" s="2"/>
     </row>
     <row r="897" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G897" s="19"/>
+      <c r="G897" s="17"/>
       <c r="H897" s="3"/>
       <c r="I897" s="2"/>
     </row>
     <row r="898" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G898" s="19"/>
+      <c r="G898" s="17"/>
       <c r="H898" s="3"/>
       <c r="I898" s="2"/>
     </row>
     <row r="899" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G899" s="19"/>
+      <c r="G899" s="17"/>
       <c r="H899" s="3"/>
       <c r="I899" s="2"/>
     </row>
     <row r="900" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G900" s="19"/>
+      <c r="G900" s="17"/>
       <c r="H900" s="3"/>
       <c r="I900" s="2"/>
     </row>
     <row r="901" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G901" s="19"/>
+      <c r="G901" s="17"/>
       <c r="H901" s="3"/>
       <c r="I901" s="2"/>
     </row>
     <row r="902" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G902" s="19"/>
+      <c r="G902" s="17"/>
       <c r="H902" s="3"/>
       <c r="I902" s="2"/>
     </row>
     <row r="903" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G903" s="19"/>
+      <c r="G903" s="17"/>
       <c r="H903" s="3"/>
       <c r="I903" s="2"/>
     </row>
     <row r="904" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G904" s="19"/>
+      <c r="G904" s="17"/>
       <c r="H904" s="3"/>
       <c r="I904" s="2"/>
     </row>
     <row r="905" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G905" s="19"/>
+      <c r="G905" s="17"/>
       <c r="H905" s="3"/>
       <c r="I905" s="2"/>
     </row>
     <row r="906" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G906" s="19"/>
+      <c r="G906" s="17"/>
       <c r="H906" s="3"/>
       <c r="I906" s="2"/>
     </row>
     <row r="907" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G907" s="19"/>
+      <c r="G907" s="17"/>
       <c r="H907" s="3"/>
       <c r="I907" s="2"/>
     </row>
     <row r="908" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G908" s="19"/>
+      <c r="G908" s="17"/>
       <c r="H908" s="3"/>
       <c r="I908" s="2"/>
     </row>
     <row r="909" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G909" s="19"/>
+      <c r="G909" s="17"/>
       <c r="H909" s="3"/>
       <c r="I909" s="2"/>
     </row>
     <row r="910" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G910" s="19"/>
+      <c r="G910" s="17"/>
       <c r="H910" s="3"/>
       <c r="I910" s="2"/>
     </row>
     <row r="911" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G911" s="19"/>
+      <c r="G911" s="17"/>
       <c r="H911" s="3"/>
       <c r="I911" s="2"/>
     </row>
     <row r="912" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G912" s="19"/>
+      <c r="G912" s="17"/>
       <c r="H912" s="3"/>
       <c r="I912" s="2"/>
     </row>
     <row r="913" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G913" s="19"/>
+      <c r="G913" s="17"/>
       <c r="H913" s="3"/>
       <c r="I913" s="2"/>
     </row>
     <row r="914" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G914" s="19"/>
+      <c r="G914" s="17"/>
       <c r="H914" s="3"/>
       <c r="I914" s="2"/>
     </row>
     <row r="915" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G915" s="19"/>
+      <c r="G915" s="17"/>
       <c r="H915" s="3"/>
       <c r="I915" s="2"/>
     </row>
     <row r="916" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G916" s="19"/>
+      <c r="G916" s="17"/>
       <c r="H916" s="3"/>
       <c r="I916" s="2"/>
     </row>
     <row r="917" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G917" s="19"/>
+      <c r="G917" s="17"/>
       <c r="H917" s="3"/>
       <c r="I917" s="2"/>
     </row>
     <row r="918" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G918" s="19"/>
+      <c r="G918" s="17"/>
       <c r="H918" s="3"/>
       <c r="I918" s="2"/>
     </row>
     <row r="919" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G919" s="19"/>
+      <c r="G919" s="17"/>
       <c r="H919" s="3"/>
       <c r="I919" s="2"/>
     </row>
     <row r="920" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G920" s="19"/>
+      <c r="G920" s="17"/>
       <c r="H920" s="3"/>
       <c r="I920" s="2"/>
     </row>
     <row r="921" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G921" s="19"/>
+      <c r="G921" s="17"/>
       <c r="H921" s="3"/>
       <c r="I921" s="2"/>
     </row>
     <row r="922" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G922" s="19"/>
+      <c r="G922" s="17"/>
       <c r="H922" s="3"/>
       <c r="I922" s="2"/>
     </row>
     <row r="923" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G923" s="19"/>
+      <c r="G923" s="17"/>
       <c r="H923" s="3"/>
       <c r="I923" s="2"/>
     </row>
     <row r="924" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G924" s="19"/>
+      <c r="G924" s="17"/>
       <c r="H924" s="3"/>
       <c r="I924" s="2"/>
     </row>
     <row r="925" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G925" s="19"/>
+      <c r="G925" s="17"/>
       <c r="H925" s="3"/>
       <c r="I925" s="2"/>
     </row>
     <row r="926" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G926" s="19"/>
+      <c r="G926" s="17"/>
       <c r="H926" s="3"/>
       <c r="I926" s="2"/>
     </row>
     <row r="927" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G927" s="19"/>
+      <c r="G927" s="17"/>
       <c r="H927" s="3"/>
       <c r="I927" s="2"/>
     </row>
     <row r="928" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G928" s="19"/>
+      <c r="G928" s="17"/>
       <c r="H928" s="3"/>
       <c r="I928" s="2"/>
     </row>
     <row r="929" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G929" s="19"/>
+      <c r="G929" s="17"/>
       <c r="H929" s="3"/>
       <c r="I929" s="2"/>
     </row>
     <row r="930" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G930" s="19"/>
+      <c r="G930" s="17"/>
       <c r="H930" s="3"/>
       <c r="I930" s="2"/>
     </row>
     <row r="931" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G931" s="19"/>
+      <c r="G931" s="17"/>
       <c r="H931" s="3"/>
       <c r="I931" s="2"/>
     </row>
     <row r="932" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G932" s="19"/>
+      <c r="G932" s="17"/>
       <c r="H932" s="3"/>
       <c r="I932" s="2"/>
     </row>
     <row r="933" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G933" s="19"/>
+      <c r="G933" s="17"/>
       <c r="H933" s="3"/>
       <c r="I933" s="2"/>
     </row>
     <row r="934" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G934" s="19"/>
+      <c r="G934" s="17"/>
       <c r="H934" s="3"/>
       <c r="I934" s="2"/>
     </row>
     <row r="935" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G935" s="19"/>
+      <c r="G935" s="17"/>
       <c r="H935" s="3"/>
       <c r="I935" s="2"/>
     </row>
     <row r="936" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G936" s="19"/>
+      <c r="G936" s="17"/>
       <c r="H936" s="3"/>
       <c r="I936" s="2"/>
     </row>
     <row r="937" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G937" s="19"/>
+      <c r="G937" s="17"/>
       <c r="H937" s="3"/>
       <c r="I937" s="2"/>
     </row>
     <row r="938" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G938" s="19"/>
+      <c r="G938" s="17"/>
       <c r="H938" s="3"/>
       <c r="I938" s="2"/>
     </row>
     <row r="939" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G939" s="19"/>
+      <c r="G939" s="17"/>
       <c r="H939" s="3"/>
       <c r="I939" s="2"/>
     </row>
     <row r="940" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G940" s="19"/>
+      <c r="G940" s="17"/>
       <c r="H940" s="3"/>
       <c r="I940" s="2"/>
     </row>
     <row r="941" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G941" s="19"/>
+      <c r="G941" s="17"/>
       <c r="H941" s="3"/>
       <c r="I941" s="2"/>
     </row>
     <row r="942" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G942" s="19"/>
+      <c r="G942" s="17"/>
       <c r="H942" s="3"/>
       <c r="I942" s="2"/>
     </row>
     <row r="943" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G943" s="19"/>
+      <c r="G943" s="17"/>
       <c r="H943" s="3"/>
       <c r="I943" s="2"/>
     </row>
     <row r="944" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G944" s="19"/>
+      <c r="G944" s="17"/>
       <c r="H944" s="3"/>
       <c r="I944" s="2"/>
     </row>
     <row r="945" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G945" s="19"/>
+      <c r="G945" s="17"/>
       <c r="H945" s="3"/>
       <c r="I945" s="2"/>
     </row>
     <row r="946" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G946" s="19"/>
+      <c r="G946" s="17"/>
       <c r="H946" s="3"/>
       <c r="I946" s="2"/>
     </row>
     <row r="947" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G947" s="19"/>
+      <c r="G947" s="17"/>
       <c r="H947" s="3"/>
       <c r="I947" s="2"/>
     </row>
     <row r="948" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G948" s="19"/>
+      <c r="G948" s="17"/>
       <c r="H948" s="3"/>
       <c r="I948" s="2"/>
     </row>
     <row r="949" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G949" s="19"/>
+      <c r="G949" s="17"/>
       <c r="H949" s="3"/>
       <c r="I949" s="2"/>
     </row>
     <row r="950" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G950" s="19"/>
+      <c r="G950" s="17"/>
       <c r="H950" s="3"/>
       <c r="I950" s="2"/>
     </row>
     <row r="951" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G951" s="19"/>
+      <c r="G951" s="17"/>
       <c r="H951" s="3"/>
       <c r="I951" s="2"/>
     </row>
     <row r="952" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G952" s="19"/>
+      <c r="G952" s="17"/>
       <c r="H952" s="3"/>
       <c r="I952" s="2"/>
     </row>
     <row r="953" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G953" s="19"/>
+      <c r="G953" s="17"/>
       <c r="H953" s="3"/>
       <c r="I953" s="2"/>
     </row>
     <row r="954" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G954" s="19"/>
+      <c r="G954" s="17"/>
       <c r="H954" s="3"/>
       <c r="I954" s="2"/>
     </row>
     <row r="955" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G955" s="19"/>
+      <c r="G955" s="17"/>
       <c r="H955" s="3"/>
       <c r="I955" s="2"/>
     </row>
     <row r="956" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G956" s="19"/>
+      <c r="G956" s="17"/>
       <c r="H956" s="3"/>
       <c r="I956" s="2"/>
     </row>
     <row r="957" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G957" s="19"/>
+      <c r="G957" s="17"/>
       <c r="H957" s="3"/>
       <c r="I957" s="2"/>
     </row>
     <row r="958" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G958" s="19"/>
+      <c r="G958" s="17"/>
       <c r="H958" s="3"/>
       <c r="I958" s="2"/>
     </row>
     <row r="959" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G959" s="19"/>
+      <c r="G959" s="17"/>
       <c r="H959" s="3"/>
       <c r="I959" s="2"/>
     </row>
     <row r="960" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G960" s="19"/>
+      <c r="G960" s="17"/>
       <c r="H960" s="3"/>
       <c r="I960" s="2"/>
     </row>
     <row r="961" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G961" s="19"/>
+      <c r="G961" s="17"/>
       <c r="H961" s="3"/>
       <c r="I961" s="2"/>
     </row>
     <row r="962" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G962" s="19"/>
+      <c r="G962" s="17"/>
       <c r="H962" s="3"/>
       <c r="I962" s="2"/>
     </row>
     <row r="963" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G963" s="19"/>
+      <c r="G963" s="17"/>
       <c r="H963" s="3"/>
       <c r="I963" s="2"/>
     </row>
     <row r="964" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G964" s="19"/>
+      <c r="G964" s="17"/>
       <c r="H964" s="3"/>
       <c r="I964" s="2"/>
     </row>
     <row r="965" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G965" s="19"/>
+      <c r="G965" s="17"/>
       <c r="H965" s="3"/>
       <c r="I965" s="2"/>
     </row>
     <row r="966" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G966" s="19"/>
+      <c r="G966" s="17"/>
       <c r="H966" s="3"/>
       <c r="I966" s="2"/>
     </row>
     <row r="967" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G967" s="19"/>
+      <c r="G967" s="17"/>
       <c r="H967" s="3"/>
       <c r="I967" s="2"/>
     </row>
     <row r="968" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G968" s="19"/>
+      <c r="G968" s="17"/>
       <c r="H968" s="3"/>
       <c r="I968" s="2"/>
     </row>
     <row r="969" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G969" s="19"/>
+      <c r="G969" s="17"/>
       <c r="H969" s="3"/>
       <c r="I969" s="2"/>
     </row>
     <row r="970" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G970" s="19"/>
+      <c r="G970" s="17"/>
       <c r="H970" s="3"/>
       <c r="I970" s="2"/>
     </row>
     <row r="971" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G971" s="19"/>
+      <c r="G971" s="17"/>
       <c r="H971" s="3"/>
       <c r="I971" s="2"/>
     </row>
     <row r="972" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G972" s="19"/>
+      <c r="G972" s="17"/>
       <c r="H972" s="3"/>
       <c r="I972" s="2"/>
     </row>
     <row r="973" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G973" s="19"/>
+      <c r="G973" s="17"/>
       <c r="H973" s="3"/>
       <c r="I973" s="2"/>
     </row>
     <row r="974" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G974" s="19"/>
+      <c r="G974" s="17"/>
       <c r="H974" s="3"/>
       <c r="I974" s="2"/>
     </row>
     <row r="975" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G975" s="19"/>
+      <c r="G975" s="17"/>
       <c r="H975" s="3"/>
       <c r="I975" s="2"/>
     </row>
     <row r="976" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G976" s="19"/>
+      <c r="G976" s="17"/>
       <c r="H976" s="3"/>
       <c r="I976" s="2"/>
     </row>
     <row r="977" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G977" s="19"/>
+      <c r="G977" s="17"/>
       <c r="H977" s="3"/>
       <c r="I977" s="2"/>
     </row>
     <row r="978" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G978" s="19"/>
+      <c r="G978" s="17"/>
       <c r="H978" s="3"/>
       <c r="I978" s="2"/>
     </row>
     <row r="979" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G979" s="19"/>
+      <c r="G979" s="17"/>
       <c r="H979" s="3"/>
       <c r="I979" s="2"/>
     </row>
     <row r="980" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G980" s="19"/>
+      <c r="G980" s="17"/>
       <c r="H980" s="3"/>
       <c r="I980" s="2"/>
     </row>
     <row r="981" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G981" s="19"/>
+      <c r="G981" s="17"/>
       <c r="H981" s="3"/>
       <c r="I981" s="2"/>
     </row>
     <row r="982" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G982" s="19"/>
+      <c r="G982" s="17"/>
       <c r="H982" s="3"/>
       <c r="I982" s="2"/>
     </row>
     <row r="983" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G983" s="19"/>
+      <c r="G983" s="17"/>
       <c r="H983" s="3"/>
       <c r="I983" s="2"/>
     </row>
     <row r="984" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G984" s="19"/>
+      <c r="G984" s="17"/>
       <c r="H984" s="3"/>
       <c r="I984" s="2"/>
     </row>
     <row r="985" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G985" s="19"/>
+      <c r="G985" s="17"/>
       <c r="H985" s="3"/>
       <c r="I985" s="2"/>
     </row>
     <row r="986" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G986" s="19"/>
+      <c r="G986" s="17"/>
       <c r="H986" s="3"/>
       <c r="I986" s="2"/>
     </row>
     <row r="987" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G987" s="19"/>
+      <c r="G987" s="17"/>
       <c r="H987" s="3"/>
       <c r="I987" s="2"/>
     </row>
     <row r="988" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G988" s="19"/>
+      <c r="G988" s="17"/>
       <c r="H988" s="3"/>
       <c r="I988" s="2"/>
     </row>
     <row r="989" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G989" s="19"/>
+      <c r="G989" s="17"/>
       <c r="H989" s="3"/>
       <c r="I989" s="2"/>
     </row>
     <row r="990" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G990" s="19"/>
+      <c r="G990" s="17"/>
       <c r="H990" s="3"/>
       <c r="I990" s="2"/>
     </row>
     <row r="991" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G991" s="19"/>
+      <c r="G991" s="17"/>
       <c r="H991" s="3"/>
       <c r="I991" s="2"/>
     </row>
     <row r="992" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G992" s="19"/>
+      <c r="G992" s="17"/>
       <c r="H992" s="3"/>
       <c r="I992" s="2"/>
     </row>
     <row r="993" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G993" s="19"/>
+      <c r="G993" s="17"/>
       <c r="H993" s="3"/>
       <c r="I993" s="2"/>
     </row>
     <row r="994" spans="7:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G994" s="19"/>
+      <c r="G994" s="17"/>
       <c r="H994" s="3"/>
       <c r="I994" s="2"/>
     </row>
